--- a/bh3/545773554579216212_2021-07-10_18-00-08.xlsx
+++ b/bh3/545773554579216212_2021-07-10_18-00-08.xlsx
@@ -16,7 +16,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+  </numFmts>
   <fonts count="1">
     <font>
       <name val="Calibri"/>
@@ -46,8 +48,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -419,6 +422,19 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="12" customWidth="1" min="1" max="1"/>
+    <col width="12" customWidth="1" min="2" max="2"/>
+    <col width="12" customWidth="1" min="3" max="3"/>
+    <col width="50" customWidth="1" min="5" max="5"/>
+    <col width="12" customWidth="1" min="7" max="7"/>
+    <col width="20" customWidth="1" min="8" max="8"/>
+    <col width="12" customWidth="1" min="11" max="11"/>
+    <col width="12" customWidth="1" min="13" max="13"/>
+    <col width="12" customWidth="1" min="15" max="15"/>
+    <col width="20" customWidth="1" min="16" max="16"/>
+    <col width="20" customWidth="1" min="17" max="17"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
@@ -539,10 +555,8 @@
           <t>4881171408</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>2021-07-17 14:20:49</t>
-        </is>
+      <c r="H2" s="1" t="n">
+        <v>44394.59778935185</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -610,10 +624,8 @@
           <t>4881171408</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>2021-07-17 11:47:12</t>
-        </is>
+      <c r="H3" s="1" t="n">
+        <v>44394.49111111111</v>
       </c>
       <c r="I3" t="n">
         <v>2</v>
@@ -681,10 +693,8 @@
           <t>4911695909</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>2021-07-15 12:25:38</t>
-        </is>
+      <c r="H4" s="1" t="n">
+        <v>44392.51780092593</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -752,10 +762,8 @@
           <t>4911695909</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>2021-07-15 07:46:31</t>
-        </is>
+      <c r="H5" s="1" t="n">
+        <v>44392.3239699074</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -831,10 +839,8 @@
           <t>4881207040</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>2021-07-15 07:05:00</t>
-        </is>
+      <c r="H6" s="1" t="n">
+        <v>44392.29513888889</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -902,10 +908,8 @@
           <t>4910646670</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>2021-07-15 00:02:53</t>
-        </is>
+      <c r="H7" s="1" t="n">
+        <v>44392.00200231482</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -969,10 +973,8 @@
           <t>4906697520</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>2021-07-14 16:30:31</t>
-        </is>
+      <c r="H8" s="1" t="n">
+        <v>44391.68785879629</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1040,10 +1042,8 @@
           <t>4906697520</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>2021-07-14 14:23:46</t>
-        </is>
+      <c r="H9" s="1" t="n">
+        <v>44391.59983796296</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1115,10 +1115,8 @@
           <t>4883695223</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>2021-07-14 14:22:59</t>
-        </is>
+      <c r="H10" s="1" t="n">
+        <v>44391.59929398148</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1190,10 +1188,8 @@
           <t>4881092585</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>2021-07-14 14:22:14</t>
-        </is>
+      <c r="H11" s="1" t="n">
+        <v>44391.59877314815</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1265,10 +1261,8 @@
           <t>4881207040</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>2021-07-12 19:26:47</t>
-        </is>
+      <c r="H12" s="1" t="n">
+        <v>44389.81026620371</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1332,10 +1326,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>2021-07-11 23:52:21</t>
-        </is>
+      <c r="H13" s="1" t="n">
+        <v>44388.9946875</v>
       </c>
       <c r="I13" t="n">
         <v>1</v>
@@ -1395,10 +1387,8 @@
           <t>4881077532</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>2021-07-11 21:57:06</t>
-        </is>
+      <c r="H14" s="1" t="n">
+        <v>44388.91465277778</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1474,10 +1464,8 @@
           <t>4881207040</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>2021-07-11 20:04:13</t>
-        </is>
+      <c r="H15" s="1" t="n">
+        <v>44388.83626157408</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1541,10 +1529,8 @@
           <t>4882321931</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>2021-07-11 18:44:16</t>
-        </is>
+      <c r="H16" s="1" t="n">
+        <v>44388.78074074074</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1608,10 +1594,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>2021-07-11 14:38:53</t>
-        </is>
+      <c r="H17" s="1" t="n">
+        <v>44388.61033564815</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1687,10 +1671,8 @@
           <t>4886758865</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>2021-07-11 14:13:02</t>
-        </is>
+      <c r="H18" s="1" t="n">
+        <v>44388.59238425926</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1762,10 +1744,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>2021-07-11 14:07:52</t>
-        </is>
+      <c r="H19" s="1" t="n">
+        <v>44388.5887962963</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -1833,10 +1813,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>2021-07-11 11:39:41</t>
-        </is>
+      <c r="H20" s="1" t="n">
+        <v>44388.4858912037</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -1900,10 +1878,8 @@
           <t>4885144841</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>2021-07-11 09:47:06</t>
-        </is>
+      <c r="H21" s="1" t="n">
+        <v>44388.40770833333</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -1967,10 +1943,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>2021-07-11 09:38:41</t>
-        </is>
+      <c r="H22" s="1" t="n">
+        <v>44388.40186342593</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2038,10 +2012,8 @@
           <t>4885063241</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>2021-07-11 09:28:35</t>
-        </is>
+      <c r="H23" s="1" t="n">
+        <v>44388.39484953704</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2117,10 +2089,8 @@
           <t>4881207040</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>2021-07-11 08:38:06</t>
-        </is>
+      <c r="H24" s="1" t="n">
+        <v>44388.35979166667</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2184,10 +2154,8 @@
           <t>4881515561</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>2021-07-11 08:34:11</t>
-        </is>
+      <c r="H25" s="1" t="n">
+        <v>44388.35707175926</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2255,10 +2223,8 @@
           <t>4884837416</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>2021-07-11 08:33:30</t>
-        </is>
+      <c r="H26" s="1" t="n">
+        <v>44388.35659722222</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2326,10 +2292,8 @@
           <t>4881508398</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>2021-07-11 08:32:04</t>
-        </is>
+      <c r="H27" s="1" t="n">
+        <v>44388.35560185185</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2397,10 +2361,8 @@
           <t>4884824294</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>2021-07-11 08:30:54</t>
-        </is>
+      <c r="H28" s="1" t="n">
+        <v>44388.35479166666</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2468,10 +2430,8 @@
           <t>4884820825</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>2021-07-11 08:27:53</t>
-        </is>
+      <c r="H29" s="1" t="n">
+        <v>44388.35269675926</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2539,10 +2499,8 @@
           <t>4884820644</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>2021-07-11 08:27:44</t>
-        </is>
+      <c r="H30" s="1" t="n">
+        <v>44388.35259259259</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2611,10 +2569,8 @@
           <t>4884813858</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>2021-07-11 08:26:23</t>
-        </is>
+      <c r="H31" s="1" t="n">
+        <v>44388.35165509259</v>
       </c>
       <c r="I31" t="n">
         <v>1</v>
@@ -2682,10 +2638,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>2021-07-11 07:01:16</t>
-        </is>
+      <c r="H32" s="1" t="n">
+        <v>44388.2925462963</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -2749,10 +2703,8 @@
           <t>4884515622</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>2021-07-11 05:53:47</t>
-        </is>
+      <c r="H33" s="1" t="n">
+        <v>44388.24568287037</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -2812,10 +2764,8 @@
           <t>4881170190</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>2021-07-11 02:05:25</t>
-        </is>
+      <c r="H34" s="1" t="n">
+        <v>44388.08709490741</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -2891,10 +2841,8 @@
           <t>4881170190</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>2021-07-11 02:04:47</t>
-        </is>
+      <c r="H35" s="1" t="n">
+        <v>44388.08665509259</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -2970,10 +2918,8 @@
           <t>4884156540</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>2021-07-11 01:50:10</t>
-        </is>
+      <c r="H36" s="1" t="n">
+        <v>44388.07650462963</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3037,10 +2983,8 @@
           <t>4881508398</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>2021-07-11 00:41:10</t>
-        </is>
+      <c r="H37" s="1" t="n">
+        <v>44388.02858796297</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3116,10 +3060,8 @@
           <t>4883837899</t>
         </is>
       </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>2021-07-11 00:35:04</t>
-        </is>
+      <c r="H38" s="1" t="n">
+        <v>44388.02435185185</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3187,10 +3129,8 @@
           <t>4883695223</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>2021-07-11 00:09:48</t>
-        </is>
+      <c r="H39" s="1" t="n">
+        <v>44388.00680555555</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3259,10 +3199,8 @@
           <t>4881170190</t>
         </is>
       </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>2021-07-11 00:03:20</t>
-        </is>
+      <c r="H40" s="1" t="n">
+        <v>44388.00231481482</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3334,10 +3272,8 @@
           <t>4881393395</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>2021-07-10 23:55:43</t>
-        </is>
+      <c r="H41" s="1" t="n">
+        <v>44387.99702546297</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3405,10 +3341,8 @@
           <t>4882321931</t>
         </is>
       </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>2021-07-10 23:46:24</t>
-        </is>
+      <c r="H42" s="1" t="n">
+        <v>44387.99055555555</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3480,10 +3414,8 @@
           <t>4882943124</t>
         </is>
       </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>2021-07-10 23:25:50</t>
-        </is>
+      <c r="H43" s="1" t="n">
+        <v>44387.97627314815</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3556,10 +3488,8 @@
           <t>4883381073</t>
         </is>
       </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>2021-07-10 23:24:15</t>
-        </is>
+      <c r="H44" s="1" t="n">
+        <v>44387.97517361111</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -3631,10 +3561,8 @@
           <t>4881163440</t>
         </is>
       </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>2021-07-10 23:22:38</t>
-        </is>
+      <c r="H45" s="1" t="n">
+        <v>44387.97405092593</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -3706,10 +3634,8 @@
           <t>4883353466</t>
         </is>
       </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>2021-07-10 23:20:56</t>
-        </is>
+      <c r="H46" s="1" t="n">
+        <v>44387.97287037037</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -3781,10 +3707,8 @@
           <t>4881170190</t>
         </is>
       </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>2021-07-10 23:16:38</t>
-        </is>
+      <c r="H47" s="1" t="n">
+        <v>44387.96988425926</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
@@ -3860,10 +3784,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>2021-07-10 23:16:36</t>
-        </is>
+      <c r="H48" s="1" t="n">
+        <v>44387.96986111111</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
@@ -3931,10 +3853,8 @@
           <t>4883233232</t>
         </is>
       </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>2021-07-10 23:05:27</t>
-        </is>
+      <c r="H49" s="1" t="n">
+        <v>44387.96211805556</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
@@ -3998,10 +3918,8 @@
           <t>4883237468</t>
         </is>
       </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>2021-07-10 23:05:21</t>
-        </is>
+      <c r="H50" s="1" t="n">
+        <v>44387.96204861111</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
@@ -4069,10 +3987,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>2021-07-10 23:03:02</t>
-        </is>
+      <c r="H51" s="1" t="n">
+        <v>44387.96043981481</v>
       </c>
       <c r="I51" t="n">
         <v>1</v>
@@ -4136,10 +4052,8 @@
           <t>4883179030</t>
         </is>
       </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>2021-07-10 22:58:30</t>
-        </is>
+      <c r="H52" s="1" t="n">
+        <v>44387.95729166667</v>
       </c>
       <c r="I52" t="n">
         <v>3</v>
@@ -4211,10 +4125,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>2021-07-10 22:42:07</t>
-        </is>
+      <c r="H53" s="1" t="n">
+        <v>44387.94591435185</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
@@ -4283,10 +4195,8 @@
           <t>4882943124</t>
         </is>
       </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>2021-07-10 22:27:32</t>
-        </is>
+      <c r="H54" s="1" t="n">
+        <v>44387.93578703704</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
@@ -4346,10 +4256,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>2021-07-10 22:18:01</t>
-        </is>
+      <c r="H55" s="1" t="n">
+        <v>44387.92917824074</v>
       </c>
       <c r="I55" t="n">
         <v>1</v>
@@ -4418,10 +4326,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>2021-07-10 22:13:31</t>
-        </is>
+      <c r="H56" s="1" t="n">
+        <v>44387.92605324074</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
@@ -4489,10 +4395,8 @@
           <t>4882144368</t>
         </is>
       </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>2021-07-10 22:07:22</t>
-        </is>
+      <c r="H57" s="1" t="n">
+        <v>44387.92178240741</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
@@ -4556,10 +4460,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>2021-07-10 21:49:16</t>
-        </is>
+      <c r="H58" s="1" t="n">
+        <v>44387.90921296296</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
@@ -4623,10 +4525,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>2021-07-10 21:48:55</t>
-        </is>
+      <c r="H59" s="1" t="n">
+        <v>44387.90896990741</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
@@ -4695,10 +4595,8 @@
           <t>4881170190</t>
         </is>
       </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>2021-07-10 21:35:22</t>
-        </is>
+      <c r="H60" s="1" t="n">
+        <v>44387.89956018519</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
@@ -4770,10 +4668,8 @@
           <t>4881099053</t>
         </is>
       </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>2021-07-10 21:34:17</t>
-        </is>
+      <c r="H61" s="1" t="n">
+        <v>44387.89880787037</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
@@ -4846,10 +4742,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>2021-07-10 21:21:40</t>
-        </is>
+      <c r="H62" s="1" t="n">
+        <v>44387.8900462963</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
@@ -4921,10 +4815,8 @@
           <t>4882406959</t>
         </is>
       </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>2021-07-10 21:15:35</t>
-        </is>
+      <c r="H63" s="1" t="n">
+        <v>44387.88582175926</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
@@ -4988,10 +4880,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>2021-07-10 21:13:21</t>
-        </is>
+      <c r="H64" s="1" t="n">
+        <v>44387.88427083333</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
@@ -5059,10 +4949,8 @@
           <t>4881320153</t>
         </is>
       </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>2021-07-10 21:11:32</t>
-        </is>
+      <c r="H65" s="1" t="n">
+        <v>44387.88300925926</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
@@ -5134,10 +5022,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>2021-07-10 21:08:44</t>
-        </is>
+      <c r="H66" s="1" t="n">
+        <v>44387.88106481481</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
@@ -5209,10 +5095,8 @@
           <t>4881508398</t>
         </is>
       </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>2021-07-10 21:05:46</t>
-        </is>
+      <c r="H67" s="1" t="n">
+        <v>44387.87900462963</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
@@ -5280,10 +5164,8 @@
           <t>4882321931</t>
         </is>
       </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>2021-07-10 21:04:51</t>
-        </is>
+      <c r="H68" s="1" t="n">
+        <v>44387.87836805556</v>
       </c>
       <c r="I68" t="n">
         <v>0</v>
@@ -5347,10 +5229,8 @@
           <t>4881170190</t>
         </is>
       </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>2021-07-10 21:03:49</t>
-        </is>
+      <c r="H69" s="1" t="n">
+        <v>44387.87765046296</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
@@ -5426,10 +5306,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>2021-07-10 21:03:42</t>
-        </is>
+      <c r="H70" s="1" t="n">
+        <v>44387.87756944444</v>
       </c>
       <c r="I70" t="n">
         <v>0</v>
@@ -5493,10 +5371,8 @@
           <t>4881220191</t>
         </is>
       </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>2021-07-10 20:59:49</t>
-        </is>
+      <c r="H71" s="1" t="n">
+        <v>44387.87487268518</v>
       </c>
       <c r="I71" t="n">
         <v>0</v>
@@ -5564,10 +5440,8 @@
           <t>4881508398</t>
         </is>
       </c>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t>2021-07-10 20:53:11</t>
-        </is>
+      <c r="H72" s="1" t="n">
+        <v>44387.8702662037</v>
       </c>
       <c r="I72" t="n">
         <v>0</v>
@@ -5635,10 +5509,8 @@
           <t>4881170190</t>
         </is>
       </c>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t>2021-07-10 20:51:58</t>
-        </is>
+      <c r="H73" s="1" t="n">
+        <v>44387.86942129629</v>
       </c>
       <c r="I73" t="n">
         <v>0</v>
@@ -5710,10 +5582,8 @@
           <t>4881170190</t>
         </is>
       </c>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t>2021-07-10 20:51:11</t>
-        </is>
+      <c r="H74" s="1" t="n">
+        <v>44387.86887731482</v>
       </c>
       <c r="I74" t="n">
         <v>1</v>
@@ -5781,10 +5651,8 @@
           <t>4881170190</t>
         </is>
       </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>2021-07-10 20:49:27</t>
-        </is>
+      <c r="H75" s="1" t="n">
+        <v>44387.86767361111</v>
       </c>
       <c r="I75" t="n">
         <v>0</v>
@@ -5860,10 +5728,8 @@
           <t>4882025864</t>
         </is>
       </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>2021-07-10 20:47:44</t>
-        </is>
+      <c r="H76" s="1" t="n">
+        <v>44387.86648148148</v>
       </c>
       <c r="I76" t="n">
         <v>0</v>
@@ -5935,10 +5801,8 @@
           <t>4882187181</t>
         </is>
       </c>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t>2021-07-10 20:47:03</t>
-        </is>
+      <c r="H77" s="1" t="n">
+        <v>44387.86600694444</v>
       </c>
       <c r="I77" t="n">
         <v>1</v>
@@ -6002,10 +5866,8 @@
           <t>4882182791</t>
         </is>
       </c>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t>2021-07-10 20:45:45</t>
-        </is>
+      <c r="H78" s="1" t="n">
+        <v>44387.86510416667</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
@@ -6065,10 +5927,8 @@
           <t>4882172028</t>
         </is>
       </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>2021-07-10 20:45:08</t>
-        </is>
+      <c r="H79" s="1" t="n">
+        <v>44387.86467592593</v>
       </c>
       <c r="I79" t="n">
         <v>0</v>
@@ -6132,10 +5992,8 @@
           <t>4882144368</t>
         </is>
       </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>2021-07-10 20:42:08</t>
-        </is>
+      <c r="H80" s="1" t="n">
+        <v>44387.8625925926</v>
       </c>
       <c r="I80" t="n">
         <v>0</v>
@@ -6199,10 +6057,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H81" t="inlineStr">
-        <is>
-          <t>2021-07-10 20:40:38</t>
-        </is>
+      <c r="H81" s="1" t="n">
+        <v>44387.86155092593</v>
       </c>
       <c r="I81" t="n">
         <v>0</v>
@@ -6266,10 +6122,8 @@
           <t>4881508398</t>
         </is>
       </c>
-      <c r="H82" t="inlineStr">
-        <is>
-          <t>2021-07-10 20:35:53</t>
-        </is>
+      <c r="H82" s="1" t="n">
+        <v>44387.85825231481</v>
       </c>
       <c r="I82" t="n">
         <v>3</v>
@@ -6345,10 +6199,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H83" t="inlineStr">
-        <is>
-          <t>2021-07-10 20:32:13</t>
-        </is>
+      <c r="H83" s="1" t="n">
+        <v>44387.85570601852</v>
       </c>
       <c r="I83" t="n">
         <v>0</v>
@@ -6420,10 +6272,8 @@
           <t>4882025864</t>
         </is>
       </c>
-      <c r="H84" t="inlineStr">
-        <is>
-          <t>2021-07-10 20:23:23</t>
-        </is>
+      <c r="H84" s="1" t="n">
+        <v>44387.84957175926</v>
       </c>
       <c r="I84" t="n">
         <v>0</v>
@@ -6491,10 +6341,8 @@
           <t>4881063580</t>
         </is>
       </c>
-      <c r="H85" t="inlineStr">
-        <is>
-          <t>2021-07-10 20:15:29</t>
-        </is>
+      <c r="H85" s="1" t="n">
+        <v>44387.84408564815</v>
       </c>
       <c r="I85" t="n">
         <v>0</v>
@@ -6558,10 +6406,8 @@
           <t>4881942043</t>
         </is>
       </c>
-      <c r="H86" t="inlineStr">
-        <is>
-          <t>2021-07-10 20:11:51</t>
-        </is>
+      <c r="H86" s="1" t="n">
+        <v>44387.8415625</v>
       </c>
       <c r="I86" t="n">
         <v>0</v>
@@ -6637,10 +6483,8 @@
           <t>4881942043</t>
         </is>
       </c>
-      <c r="H87" t="inlineStr">
-        <is>
-          <t>2021-07-10 20:11:00</t>
-        </is>
+      <c r="H87" s="1" t="n">
+        <v>44387.84097222222</v>
       </c>
       <c r="I87" t="n">
         <v>0</v>
@@ -6704,10 +6548,8 @@
           <t>4881797229</t>
         </is>
       </c>
-      <c r="H88" t="inlineStr">
-        <is>
-          <t>2021-07-10 20:08:48</t>
-        </is>
+      <c r="H88" s="1" t="n">
+        <v>44387.83944444444</v>
       </c>
       <c r="I88" t="n">
         <v>0</v>
@@ -6783,10 +6625,8 @@
           <t>4881909766</t>
         </is>
       </c>
-      <c r="H89" t="inlineStr">
-        <is>
-          <t>2021-07-10 20:07:30</t>
-        </is>
+      <c r="H89" s="1" t="n">
+        <v>44387.83854166666</v>
       </c>
       <c r="I89" t="n">
         <v>0</v>
@@ -6858,10 +6698,8 @@
           <t>4881797229</t>
         </is>
       </c>
-      <c r="H90" t="inlineStr">
-        <is>
-          <t>2021-07-10 20:06:50</t>
-        </is>
+      <c r="H90" s="1" t="n">
+        <v>44387.8380787037</v>
       </c>
       <c r="I90" t="n">
         <v>0</v>
@@ -6929,10 +6767,8 @@
           <t>4881797229</t>
         </is>
       </c>
-      <c r="H91" t="inlineStr">
-        <is>
-          <t>2021-07-10 20:04:53</t>
-        </is>
+      <c r="H91" s="1" t="n">
+        <v>44387.83672453704</v>
       </c>
       <c r="I91" t="n">
         <v>1</v>
@@ -7008,10 +6844,8 @@
           <t>4881797229</t>
         </is>
       </c>
-      <c r="H92" t="inlineStr">
-        <is>
-          <t>2021-07-10 20:03:51</t>
-        </is>
+      <c r="H92" s="1" t="n">
+        <v>44387.83600694445</v>
       </c>
       <c r="I92" t="n">
         <v>0</v>
@@ -7079,10 +6913,8 @@
           <t>4881797229</t>
         </is>
       </c>
-      <c r="H93" t="inlineStr">
-        <is>
-          <t>2021-07-10 20:01:00</t>
-        </is>
+      <c r="H93" s="1" t="n">
+        <v>44387.83402777778</v>
       </c>
       <c r="I93" t="n">
         <v>0</v>
@@ -7158,10 +6990,8 @@
           <t>4881797229</t>
         </is>
       </c>
-      <c r="H94" t="inlineStr">
-        <is>
-          <t>2021-07-10 19:57:18</t>
-        </is>
+      <c r="H94" s="1" t="n">
+        <v>44387.83145833333</v>
       </c>
       <c r="I94" t="n">
         <v>0</v>
@@ -7229,10 +7059,8 @@
           <t>4881212994</t>
         </is>
       </c>
-      <c r="H95" t="inlineStr">
-        <is>
-          <t>2021-07-10 19:55:46</t>
-        </is>
+      <c r="H95" s="1" t="n">
+        <v>44387.83039351852</v>
       </c>
       <c r="I95" t="n">
         <v>0</v>
@@ -7296,10 +7124,8 @@
           <t>4881207040</t>
         </is>
       </c>
-      <c r="H96" t="inlineStr">
-        <is>
-          <t>2021-07-10 19:54:20</t>
-        </is>
+      <c r="H96" s="1" t="n">
+        <v>44387.82939814815</v>
       </c>
       <c r="I96" t="n">
         <v>0</v>
@@ -7363,10 +7189,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H97" t="inlineStr">
-        <is>
-          <t>2021-07-10 19:54:11</t>
-        </is>
+      <c r="H97" s="1" t="n">
+        <v>44387.82929398148</v>
       </c>
       <c r="I97" t="n">
         <v>0</v>
@@ -7442,10 +7266,8 @@
           <t>4881308725</t>
         </is>
       </c>
-      <c r="H98" t="inlineStr">
-        <is>
-          <t>2021-07-10 19:54:00</t>
-        </is>
+      <c r="H98" s="1" t="n">
+        <v>44387.82916666667</v>
       </c>
       <c r="I98" t="n">
         <v>0</v>
@@ -7521,10 +7343,8 @@
           <t>4881819615</t>
         </is>
       </c>
-      <c r="H99" t="inlineStr">
-        <is>
-          <t>2021-07-10 19:53:58</t>
-        </is>
+      <c r="H99" s="1" t="n">
+        <v>44387.82914351852</v>
       </c>
       <c r="I99" t="n">
         <v>0</v>
@@ -7592,10 +7412,8 @@
           <t>4881391115</t>
         </is>
       </c>
-      <c r="H100" t="inlineStr">
-        <is>
-          <t>2021-07-10 19:53:45</t>
-        </is>
+      <c r="H100" s="1" t="n">
+        <v>44387.82899305555</v>
       </c>
       <c r="I100" t="n">
         <v>0</v>
@@ -7659,10 +7477,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H101" t="inlineStr">
-        <is>
-          <t>2021-07-10 19:53:24</t>
-        </is>
+      <c r="H101" s="1" t="n">
+        <v>44387.82875</v>
       </c>
       <c r="I101" t="n">
         <v>0</v>
@@ -7730,10 +7546,8 @@
           <t>4881818092</t>
         </is>
       </c>
-      <c r="H102" t="inlineStr">
-        <is>
-          <t>2021-07-10 19:53:18</t>
-        </is>
+      <c r="H102" s="1" t="n">
+        <v>44387.82868055555</v>
       </c>
       <c r="I102" t="n">
         <v>4</v>
@@ -7810,10 +7624,8 @@
           <t>4881815655</t>
         </is>
       </c>
-      <c r="H103" t="inlineStr">
-        <is>
-          <t>2021-07-10 19:52:16</t>
-        </is>
+      <c r="H103" s="1" t="n">
+        <v>44387.82796296296</v>
       </c>
       <c r="I103" t="n">
         <v>0</v>
@@ -7890,10 +7702,8 @@
           <t>4881423398</t>
         </is>
       </c>
-      <c r="H104" t="inlineStr">
-        <is>
-          <t>2021-07-10 19:52:12</t>
-        </is>
+      <c r="H104" s="1" t="n">
+        <v>44387.82791666667</v>
       </c>
       <c r="I104" t="n">
         <v>0</v>
@@ -7965,10 +7775,8 @@
           <t>4881730832</t>
         </is>
       </c>
-      <c r="H105" t="inlineStr">
-        <is>
-          <t>2021-07-10 19:51:55</t>
-        </is>
+      <c r="H105" s="1" t="n">
+        <v>44387.82771990741</v>
       </c>
       <c r="I105" t="n">
         <v>0</v>
@@ -8045,10 +7853,8 @@
           <t>4881730832</t>
         </is>
       </c>
-      <c r="H106" t="inlineStr">
-        <is>
-          <t>2021-07-10 19:51:02</t>
-        </is>
+      <c r="H106" s="1" t="n">
+        <v>44387.82710648148</v>
       </c>
       <c r="I106" t="n">
         <v>0</v>
@@ -8125,10 +7931,8 @@
           <t>4881797229</t>
         </is>
       </c>
-      <c r="H107" t="inlineStr">
-        <is>
-          <t>2021-07-10 19:50:41</t>
-        </is>
+      <c r="H107" s="1" t="n">
+        <v>44387.82686342593</v>
       </c>
       <c r="I107" t="n">
         <v>0</v>
@@ -8209,10 +8013,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H108" t="inlineStr">
-        <is>
-          <t>2021-07-10 19:50:35</t>
-        </is>
+      <c r="H108" s="1" t="n">
+        <v>44387.82679398148</v>
       </c>
       <c r="I108" t="n">
         <v>3</v>
@@ -8279,10 +8081,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H109" t="inlineStr">
-        <is>
-          <t>2021-07-10 19:50:18</t>
-        </is>
+      <c r="H109" s="1" t="n">
+        <v>44387.82659722222</v>
       </c>
       <c r="I109" t="n">
         <v>5</v>
@@ -8342,10 +8142,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H110" t="inlineStr">
-        <is>
-          <t>2021-07-10 19:50:00</t>
-        </is>
+      <c r="H110" s="1" t="n">
+        <v>44387.82638888889</v>
       </c>
       <c r="I110" t="n">
         <v>5</v>
@@ -8405,10 +8203,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H111" t="inlineStr">
-        <is>
-          <t>2021-07-10 19:49:53</t>
-        </is>
+      <c r="H111" s="1" t="n">
+        <v>44387.82630787037</v>
       </c>
       <c r="I111" t="n">
         <v>4</v>
@@ -8468,10 +8264,8 @@
           <t>4881215277</t>
         </is>
       </c>
-      <c r="H112" t="inlineStr">
-        <is>
-          <t>2021-07-10 19:48:46</t>
-        </is>
+      <c r="H112" s="1" t="n">
+        <v>44387.82553240741</v>
       </c>
       <c r="I112" t="n">
         <v>0</v>
@@ -8539,10 +8333,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H113" t="inlineStr">
-        <is>
-          <t>2021-07-10 19:48:42</t>
-        </is>
+      <c r="H113" s="1" t="n">
+        <v>44387.82548611111</v>
       </c>
       <c r="I113" t="n">
         <v>0</v>
@@ -8606,10 +8398,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H114" t="inlineStr">
-        <is>
-          <t>2021-07-10 19:47:20</t>
-        </is>
+      <c r="H114" s="1" t="n">
+        <v>44387.82453703704</v>
       </c>
       <c r="I114" t="n">
         <v>2</v>
@@ -8681,10 +8471,8 @@
           <t>4881212994</t>
         </is>
       </c>
-      <c r="H115" t="inlineStr">
-        <is>
-          <t>2021-07-10 19:46:57</t>
-        </is>
+      <c r="H115" s="1" t="n">
+        <v>44387.82427083333</v>
       </c>
       <c r="I115" t="n">
         <v>0</v>
@@ -8752,10 +8540,8 @@
           <t>4881469285</t>
         </is>
       </c>
-      <c r="H116" t="inlineStr">
-        <is>
-          <t>2021-07-10 19:45:31</t>
-        </is>
+      <c r="H116" s="1" t="n">
+        <v>44387.82327546296</v>
       </c>
       <c r="I116" t="n">
         <v>0</v>
@@ -8823,10 +8609,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H117" t="inlineStr">
-        <is>
-          <t>2021-07-10 19:44:21</t>
-        </is>
+      <c r="H117" s="1" t="n">
+        <v>44387.82246527778</v>
       </c>
       <c r="I117" t="n">
         <v>3</v>
@@ -8894,10 +8678,8 @@
           <t>4881171408</t>
         </is>
       </c>
-      <c r="H118" t="inlineStr">
-        <is>
-          <t>2021-07-10 19:43:25</t>
-        </is>
+      <c r="H118" s="1" t="n">
+        <v>44387.82181712963</v>
       </c>
       <c r="I118" t="n">
         <v>0</v>
@@ -8961,10 +8743,8 @@
           <t>4881730832</t>
         </is>
       </c>
-      <c r="H119" t="inlineStr">
-        <is>
-          <t>2021-07-10 19:41:05</t>
-        </is>
+      <c r="H119" s="1" t="n">
+        <v>44387.82019675926</v>
       </c>
       <c r="I119" t="n">
         <v>0</v>
@@ -9028,10 +8808,8 @@
           <t>4881723578</t>
         </is>
       </c>
-      <c r="H120" t="inlineStr">
-        <is>
-          <t>2021-07-10 19:40:53</t>
-        </is>
+      <c r="H120" s="1" t="n">
+        <v>44387.82005787037</v>
       </c>
       <c r="I120" t="n">
         <v>1</v>
@@ -9099,10 +8877,8 @@
           <t>4881723578</t>
         </is>
       </c>
-      <c r="H121" t="inlineStr">
-        <is>
-          <t>2021-07-10 19:40:13</t>
-        </is>
+      <c r="H121" s="1" t="n">
+        <v>44387.81959490741</v>
       </c>
       <c r="I121" t="n">
         <v>0</v>
@@ -9178,10 +8954,8 @@
           <t>4881171408</t>
         </is>
       </c>
-      <c r="H122" t="inlineStr">
-        <is>
-          <t>2021-07-10 19:39:43</t>
-        </is>
+      <c r="H122" s="1" t="n">
+        <v>44387.81924768518</v>
       </c>
       <c r="I122" t="n">
         <v>0</v>
@@ -9245,10 +9019,8 @@
           <t>4881298189</t>
         </is>
       </c>
-      <c r="H123" t="inlineStr">
-        <is>
-          <t>2021-07-10 19:39:07</t>
-        </is>
+      <c r="H123" s="1" t="n">
+        <v>44387.81883101852</v>
       </c>
       <c r="I123" t="n">
         <v>1</v>
@@ -9316,10 +9088,8 @@
           <t>4881298189</t>
         </is>
       </c>
-      <c r="H124" t="inlineStr">
-        <is>
-          <t>2021-07-10 19:38:12</t>
-        </is>
+      <c r="H124" s="1" t="n">
+        <v>44387.81819444444</v>
       </c>
       <c r="I124" t="n">
         <v>0</v>
@@ -9387,10 +9157,8 @@
           <t>4881079269</t>
         </is>
       </c>
-      <c r="H125" t="inlineStr">
-        <is>
-          <t>2021-07-10 19:35:48</t>
-        </is>
+      <c r="H125" s="1" t="n">
+        <v>44387.81652777778</v>
       </c>
       <c r="I125" t="n">
         <v>0</v>
@@ -9459,10 +9227,8 @@
           <t>4881092585</t>
         </is>
       </c>
-      <c r="H126" t="inlineStr">
-        <is>
-          <t>2021-07-10 19:34:38</t>
-        </is>
+      <c r="H126" s="1" t="n">
+        <v>44387.8157175926</v>
       </c>
       <c r="I126" t="n">
         <v>0</v>
@@ -9538,10 +9304,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H127" t="inlineStr">
-        <is>
-          <t>2021-07-10 19:33:02</t>
-        </is>
+      <c r="H127" s="1" t="n">
+        <v>44387.81460648148</v>
       </c>
       <c r="I127" t="n">
         <v>2</v>
@@ -9613,10 +9377,8 @@
           <t>4881224454</t>
         </is>
       </c>
-      <c r="H128" t="inlineStr">
-        <is>
-          <t>2021-07-10 19:31:05</t>
-        </is>
+      <c r="H128" s="1" t="n">
+        <v>44387.81325231482</v>
       </c>
       <c r="I128" t="n">
         <v>1</v>
@@ -9688,10 +9450,8 @@
           <t>4881117566</t>
         </is>
       </c>
-      <c r="H129" t="inlineStr">
-        <is>
-          <t>2021-07-10 19:30:02</t>
-        </is>
+      <c r="H129" s="1" t="n">
+        <v>44387.81252314815</v>
       </c>
       <c r="I129" t="n">
         <v>0</v>
@@ -9767,10 +9527,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H130" t="inlineStr">
-        <is>
-          <t>2021-07-10 19:29:31</t>
-        </is>
+      <c r="H130" s="1" t="n">
+        <v>44387.81216435185</v>
       </c>
       <c r="I130" t="n">
         <v>1</v>
@@ -9846,10 +9604,8 @@
           <t>4881201778</t>
         </is>
       </c>
-      <c r="H131" t="inlineStr">
-        <is>
-          <t>2021-07-10 19:27:02</t>
-        </is>
+      <c r="H131" s="1" t="n">
+        <v>44387.81043981481</v>
       </c>
       <c r="I131" t="n">
         <v>0</v>
@@ -9917,10 +9673,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H132" t="inlineStr">
-        <is>
-          <t>2021-07-10 19:25:41</t>
-        </is>
+      <c r="H132" s="1" t="n">
+        <v>44387.80950231481</v>
       </c>
       <c r="I132" t="n">
         <v>2</v>
@@ -9992,10 +9746,8 @@
           <t>4881631644</t>
         </is>
       </c>
-      <c r="H133" t="inlineStr">
-        <is>
-          <t>2021-07-10 19:25:16</t>
-        </is>
+      <c r="H133" s="1" t="n">
+        <v>44387.80921296297</v>
       </c>
       <c r="I133" t="n">
         <v>0</v>
@@ -10071,10 +9823,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H134" t="inlineStr">
-        <is>
-          <t>2021-07-10 19:24:49</t>
-        </is>
+      <c r="H134" s="1" t="n">
+        <v>44387.80890046297</v>
       </c>
       <c r="I134" t="n">
         <v>0</v>
@@ -10142,10 +9892,8 @@
           <t>4881621627</t>
         </is>
       </c>
-      <c r="H135" t="inlineStr">
-        <is>
-          <t>2021-07-10 19:24:40</t>
-        </is>
+      <c r="H135" s="1" t="n">
+        <v>44387.8087962963</v>
       </c>
       <c r="I135" t="n">
         <v>0</v>
@@ -10221,10 +9969,8 @@
           <t>4881630326</t>
         </is>
       </c>
-      <c r="H136" t="inlineStr">
-        <is>
-          <t>2021-07-10 19:24:40</t>
-        </is>
+      <c r="H136" s="1" t="n">
+        <v>44387.8087962963</v>
       </c>
       <c r="I136" t="n">
         <v>3</v>
@@ -10296,10 +10042,8 @@
           <t>4881613386</t>
         </is>
       </c>
-      <c r="H137" t="inlineStr">
-        <is>
-          <t>2021-07-10 19:23:46</t>
-        </is>
+      <c r="H137" s="1" t="n">
+        <v>44387.8081712963</v>
       </c>
       <c r="I137" t="n">
         <v>2</v>
@@ -10371,10 +10115,8 @@
           <t>4881077532</t>
         </is>
       </c>
-      <c r="H138" t="inlineStr">
-        <is>
-          <t>2021-07-10 19:22:30</t>
-        </is>
+      <c r="H138" s="1" t="n">
+        <v>44387.80729166666</v>
       </c>
       <c r="I138" t="n">
         <v>0</v>
@@ -10450,10 +10192,8 @@
           <t>4881598623</t>
         </is>
       </c>
-      <c r="H139" t="inlineStr">
-        <is>
-          <t>2021-07-10 19:21:33</t>
-        </is>
+      <c r="H139" s="1" t="n">
+        <v>44387.80663194445</v>
       </c>
       <c r="I139" t="n">
         <v>0</v>
@@ -10521,10 +10261,8 @@
           <t>4881160366</t>
         </is>
       </c>
-      <c r="H140" t="inlineStr">
-        <is>
-          <t>2021-07-10 19:21:26</t>
-        </is>
+      <c r="H140" s="1" t="n">
+        <v>44387.80655092592</v>
       </c>
       <c r="I140" t="n">
         <v>0</v>
@@ -10596,10 +10334,8 @@
           <t>4881077532</t>
         </is>
       </c>
-      <c r="H141" t="inlineStr">
-        <is>
-          <t>2021-07-10 19:21:09</t>
-        </is>
+      <c r="H141" s="1" t="n">
+        <v>44387.80635416666</v>
       </c>
       <c r="I141" t="n">
         <v>0</v>
@@ -10667,10 +10403,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H142" t="inlineStr">
-        <is>
-          <t>2021-07-10 19:20:10</t>
-        </is>
+      <c r="H142" s="1" t="n">
+        <v>44387.80567129629</v>
       </c>
       <c r="I142" t="n">
         <v>0</v>
@@ -10742,10 +10476,8 @@
           <t>4881215277</t>
         </is>
       </c>
-      <c r="H143" t="inlineStr">
-        <is>
-          <t>2021-07-10 19:19:05</t>
-        </is>
+      <c r="H143" s="1" t="n">
+        <v>44387.80491898148</v>
       </c>
       <c r="I143" t="n">
         <v>0</v>
@@ -10821,10 +10553,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H144" t="inlineStr">
-        <is>
-          <t>2021-07-10 19:18:51</t>
-        </is>
+      <c r="H144" s="1" t="n">
+        <v>44387.80475694445</v>
       </c>
       <c r="I144" t="n">
         <v>0</v>
@@ -10888,10 +10618,8 @@
           <t>4881215277</t>
         </is>
       </c>
-      <c r="H145" t="inlineStr">
-        <is>
-          <t>2021-07-10 19:18:29</t>
-        </is>
+      <c r="H145" s="1" t="n">
+        <v>44387.80450231482</v>
       </c>
       <c r="I145" t="n">
         <v>0</v>
@@ -10967,10 +10695,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H146" t="inlineStr">
-        <is>
-          <t>2021-07-10 19:17:39</t>
-        </is>
+      <c r="H146" s="1" t="n">
+        <v>44387.80392361111</v>
       </c>
       <c r="I146" t="n">
         <v>1</v>
@@ -11038,10 +10764,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H147" t="inlineStr">
-        <is>
-          <t>2021-07-10 19:17:36</t>
-        </is>
+      <c r="H147" s="1" t="n">
+        <v>44387.80388888889</v>
       </c>
       <c r="I147" t="n">
         <v>4</v>
@@ -11105,10 +10829,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H148" t="inlineStr">
-        <is>
-          <t>2021-07-10 19:16:43</t>
-        </is>
+      <c r="H148" s="1" t="n">
+        <v>44387.80327546296</v>
       </c>
       <c r="I148" t="n">
         <v>0</v>
@@ -11184,10 +10906,8 @@
           <t>4881077532</t>
         </is>
       </c>
-      <c r="H149" t="inlineStr">
-        <is>
-          <t>2021-07-10 19:15:25</t>
-        </is>
+      <c r="H149" s="1" t="n">
+        <v>44387.80237268518</v>
       </c>
       <c r="I149" t="n">
         <v>0</v>
@@ -11263,10 +10983,8 @@
           <t>4881224454</t>
         </is>
       </c>
-      <c r="H150" t="inlineStr">
-        <is>
-          <t>2021-07-10 19:15:12</t>
-        </is>
+      <c r="H150" s="1" t="n">
+        <v>44387.80222222222</v>
       </c>
       <c r="I150" t="n">
         <v>0</v>
@@ -11338,10 +11056,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H151" t="inlineStr">
-        <is>
-          <t>2021-07-10 19:14:57</t>
-        </is>
+      <c r="H151" s="1" t="n">
+        <v>44387.80204861111</v>
       </c>
       <c r="I151" t="n">
         <v>0</v>
@@ -11405,10 +11121,8 @@
           <t>4881552959</t>
         </is>
       </c>
-      <c r="H152" t="inlineStr">
-        <is>
-          <t>2021-07-10 19:14:23</t>
-        </is>
+      <c r="H152" s="1" t="n">
+        <v>44387.80165509259</v>
       </c>
       <c r="I152" t="n">
         <v>0</v>
@@ -11484,10 +11198,8 @@
           <t>4881298189</t>
         </is>
       </c>
-      <c r="H153" t="inlineStr">
-        <is>
-          <t>2021-07-10 19:13:05</t>
-        </is>
+      <c r="H153" s="1" t="n">
+        <v>44387.80075231481</v>
       </c>
       <c r="I153" t="n">
         <v>0</v>
@@ -11563,10 +11275,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H154" t="inlineStr">
-        <is>
-          <t>2021-07-10 19:12:31</t>
-        </is>
+      <c r="H154" s="1" t="n">
+        <v>44387.8003587963</v>
       </c>
       <c r="I154" t="n">
         <v>0</v>
@@ -11634,10 +11344,8 @@
           <t>4881545649</t>
         </is>
       </c>
-      <c r="H155" t="inlineStr">
-        <is>
-          <t>2021-07-10 19:12:21</t>
-        </is>
+      <c r="H155" s="1" t="n">
+        <v>44387.80024305556</v>
       </c>
       <c r="I155" t="n">
         <v>0</v>
@@ -11709,10 +11417,8 @@
           <t>4881541439</t>
         </is>
       </c>
-      <c r="H156" t="inlineStr">
-        <is>
-          <t>2021-07-10 19:12:16</t>
-        </is>
+      <c r="H156" s="1" t="n">
+        <v>44387.80018518519</v>
       </c>
       <c r="I156" t="n">
         <v>1</v>
@@ -11780,10 +11486,8 @@
           <t>4881537849</t>
         </is>
       </c>
-      <c r="H157" t="inlineStr">
-        <is>
-          <t>2021-07-10 19:12:08</t>
-        </is>
+      <c r="H157" s="1" t="n">
+        <v>44387.8000925926</v>
       </c>
       <c r="I157" t="n">
         <v>0</v>
@@ -11851,10 +11555,8 @@
           <t>4881201778</t>
         </is>
       </c>
-      <c r="H158" t="inlineStr">
-        <is>
-          <t>2021-07-10 19:10:01</t>
-        </is>
+      <c r="H158" s="1" t="n">
+        <v>44387.79862268519</v>
       </c>
       <c r="I158" t="n">
         <v>0</v>
@@ -11918,10 +11620,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H159" t="inlineStr">
-        <is>
-          <t>2021-07-10 19:09:29</t>
-        </is>
+      <c r="H159" s="1" t="n">
+        <v>44387.79825231482</v>
       </c>
       <c r="I159" t="n">
         <v>0</v>
@@ -11993,10 +11693,8 @@
           <t>4881171408</t>
         </is>
       </c>
-      <c r="H160" t="inlineStr">
-        <is>
-          <t>2021-07-10 19:09:24</t>
-        </is>
+      <c r="H160" s="1" t="n">
+        <v>44387.79819444445</v>
       </c>
       <c r="I160" t="n">
         <v>0</v>
@@ -12060,10 +11758,8 @@
           <t>4881518721</t>
         </is>
       </c>
-      <c r="H161" t="inlineStr">
-        <is>
-          <t>2021-07-10 19:09:07</t>
-        </is>
+      <c r="H161" s="1" t="n">
+        <v>44387.79799768519</v>
       </c>
       <c r="I161" t="n">
         <v>0</v>
@@ -12139,10 +11835,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H162" t="inlineStr">
-        <is>
-          <t>2021-07-10 19:09:01</t>
-        </is>
+      <c r="H162" s="1" t="n">
+        <v>44387.79792824074</v>
       </c>
       <c r="I162" t="n">
         <v>0</v>
@@ -12206,10 +11900,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H163" t="inlineStr">
-        <is>
-          <t>2021-07-10 19:08:38</t>
-        </is>
+      <c r="H163" s="1" t="n">
+        <v>44387.79766203704</v>
       </c>
       <c r="I163" t="n">
         <v>0</v>
@@ -12281,10 +11973,8 @@
           <t>4881162191</t>
         </is>
       </c>
-      <c r="H164" t="inlineStr">
-        <is>
-          <t>2021-07-10 19:08:24</t>
-        </is>
+      <c r="H164" s="1" t="n">
+        <v>44387.7975</v>
       </c>
       <c r="I164" t="n">
         <v>0</v>
@@ -12352,10 +12042,8 @@
           <t>4881508398</t>
         </is>
       </c>
-      <c r="H165" t="inlineStr">
-        <is>
-          <t>2021-07-10 19:07:59</t>
-        </is>
+      <c r="H165" s="1" t="n">
+        <v>44387.79721064815</v>
       </c>
       <c r="I165" t="n">
         <v>0</v>
@@ -12423,10 +12111,8 @@
           <t>4881515561</t>
         </is>
       </c>
-      <c r="H166" t="inlineStr">
-        <is>
-          <t>2021-07-10 19:07:48</t>
-        </is>
+      <c r="H166" s="1" t="n">
+        <v>44387.79708333333</v>
       </c>
       <c r="I166" t="n">
         <v>0</v>
@@ -12490,10 +12176,8 @@
           <t>4881503019</t>
         </is>
       </c>
-      <c r="H167" t="inlineStr">
-        <is>
-          <t>2021-07-10 19:06:44</t>
-        </is>
+      <c r="H167" s="1" t="n">
+        <v>44387.79634259259</v>
       </c>
       <c r="I167" t="n">
         <v>0</v>
@@ -12561,10 +12245,8 @@
           <t>4881502311</t>
         </is>
       </c>
-      <c r="H168" t="inlineStr">
-        <is>
-          <t>2021-07-10 19:06:28</t>
-        </is>
+      <c r="H168" s="1" t="n">
+        <v>44387.79615740741</v>
       </c>
       <c r="I168" t="n">
         <v>0</v>
@@ -12628,10 +12310,8 @@
           <t>4881207040</t>
         </is>
       </c>
-      <c r="H169" t="inlineStr">
-        <is>
-          <t>2021-07-10 19:06:14</t>
-        </is>
+      <c r="H169" s="1" t="n">
+        <v>44387.79599537037</v>
       </c>
       <c r="I169" t="n">
         <v>0</v>
@@ -12695,10 +12375,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H170" t="inlineStr">
-        <is>
-          <t>2021-07-10 19:06:12</t>
-        </is>
+      <c r="H170" s="1" t="n">
+        <v>44387.79597222222</v>
       </c>
       <c r="I170" t="n">
         <v>0</v>
@@ -12774,10 +12452,8 @@
           <t>4881500921</t>
         </is>
       </c>
-      <c r="H171" t="inlineStr">
-        <is>
-          <t>2021-07-10 19:05:55</t>
-        </is>
+      <c r="H171" s="1" t="n">
+        <v>44387.79577546296</v>
       </c>
       <c r="I171" t="n">
         <v>3</v>
@@ -12853,10 +12529,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H172" t="inlineStr">
-        <is>
-          <t>2021-07-10 19:05:45</t>
-        </is>
+      <c r="H172" s="1" t="n">
+        <v>44387.79565972222</v>
       </c>
       <c r="I172" t="n">
         <v>0</v>
@@ -12932,10 +12606,8 @@
           <t>4881220191</t>
         </is>
       </c>
-      <c r="H173" t="inlineStr">
-        <is>
-          <t>2021-07-10 19:05:44</t>
-        </is>
+      <c r="H173" s="1" t="n">
+        <v>44387.79564814815</v>
       </c>
       <c r="I173" t="n">
         <v>1</v>
@@ -12999,10 +12671,8 @@
           <t>4881492923</t>
         </is>
       </c>
-      <c r="H174" t="inlineStr">
-        <is>
-          <t>2021-07-10 19:05:36</t>
-        </is>
+      <c r="H174" s="1" t="n">
+        <v>44387.79555555555</v>
       </c>
       <c r="I174" t="n">
         <v>0</v>
@@ -13070,10 +12740,8 @@
           <t>4881077532</t>
         </is>
       </c>
-      <c r="H175" t="inlineStr">
-        <is>
-          <t>2021-07-10 19:05:08</t>
-        </is>
+      <c r="H175" s="1" t="n">
+        <v>44387.79523148148</v>
       </c>
       <c r="I175" t="n">
         <v>0</v>
@@ -13141,10 +12809,8 @@
           <t>4881487940</t>
         </is>
       </c>
-      <c r="H176" t="inlineStr">
-        <is>
-          <t>2021-07-10 19:04:44</t>
-        </is>
+      <c r="H176" s="1" t="n">
+        <v>44387.79495370371</v>
       </c>
       <c r="I176" t="n">
         <v>4</v>
@@ -13216,10 +12882,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H177" t="inlineStr">
-        <is>
-          <t>2021-07-10 19:04:39</t>
-        </is>
+      <c r="H177" s="1" t="n">
+        <v>44387.79489583334</v>
       </c>
       <c r="I177" t="n">
         <v>1</v>
@@ -13295,10 +12959,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H178" t="inlineStr">
-        <is>
-          <t>2021-07-10 19:04:14</t>
-        </is>
+      <c r="H178" s="1" t="n">
+        <v>44387.79460648148</v>
       </c>
       <c r="I178" t="n">
         <v>3</v>
@@ -13366,10 +13028,8 @@
           <t>4881212513</t>
         </is>
       </c>
-      <c r="H179" t="inlineStr">
-        <is>
-          <t>2021-07-10 19:03:44</t>
-        </is>
+      <c r="H179" s="1" t="n">
+        <v>44387.79425925926</v>
       </c>
       <c r="I179" t="n">
         <v>0</v>
@@ -13437,10 +13097,8 @@
           <t>4881169428</t>
         </is>
       </c>
-      <c r="H180" t="inlineStr">
-        <is>
-          <t>2021-07-10 19:03:40</t>
-        </is>
+      <c r="H180" s="1" t="n">
+        <v>44387.79421296297</v>
       </c>
       <c r="I180" t="n">
         <v>0</v>
@@ -13504,10 +13162,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H181" t="inlineStr">
-        <is>
-          <t>2021-07-10 19:03:35</t>
-        </is>
+      <c r="H181" s="1" t="n">
+        <v>44387.79415509259</v>
       </c>
       <c r="I181" t="n">
         <v>0</v>
@@ -13580,10 +13236,8 @@
           <t>4881474956</t>
         </is>
       </c>
-      <c r="H182" t="inlineStr">
-        <is>
-          <t>2021-07-10 19:03:32</t>
-        </is>
+      <c r="H182" s="1" t="n">
+        <v>44387.79412037037</v>
       </c>
       <c r="I182" t="n">
         <v>0</v>
@@ -13661,10 +13315,8 @@
           <t>4881170190</t>
         </is>
       </c>
-      <c r="H183" t="inlineStr">
-        <is>
-          <t>2021-07-10 19:03:19</t>
-        </is>
+      <c r="H183" s="1" t="n">
+        <v>44387.7939699074</v>
       </c>
       <c r="I183" t="n">
         <v>0</v>
@@ -13742,10 +13394,8 @@
           <t>4881171408</t>
         </is>
       </c>
-      <c r="H184" t="inlineStr">
-        <is>
-          <t>2021-07-10 19:03:08</t>
-        </is>
+      <c r="H184" s="1" t="n">
+        <v>44387.79384259259</v>
       </c>
       <c r="I184" t="n">
         <v>1</v>
@@ -13813,10 +13463,8 @@
           <t>4881383428</t>
         </is>
       </c>
-      <c r="H185" t="inlineStr">
-        <is>
-          <t>2021-07-10 19:02:46</t>
-        </is>
+      <c r="H185" s="1" t="n">
+        <v>44387.79358796297</v>
       </c>
       <c r="I185" t="n">
         <v>0</v>
@@ -13884,10 +13532,8 @@
           <t>4881469285</t>
         </is>
       </c>
-      <c r="H186" t="inlineStr">
-        <is>
-          <t>2021-07-10 19:02:40</t>
-        </is>
+      <c r="H186" s="1" t="n">
+        <v>44387.79351851852</v>
       </c>
       <c r="I186" t="n">
         <v>0</v>
@@ -13955,10 +13601,8 @@
           <t>4881058357</t>
         </is>
       </c>
-      <c r="H187" t="inlineStr">
-        <is>
-          <t>2021-07-10 19:01:46</t>
-        </is>
+      <c r="H187" s="1" t="n">
+        <v>44387.79289351852</v>
       </c>
       <c r="I187" t="n">
         <v>0</v>
@@ -14026,10 +13670,8 @@
           <t>4881224454</t>
         </is>
       </c>
-      <c r="H188" t="inlineStr">
-        <is>
-          <t>2021-07-10 19:01:42</t>
-        </is>
+      <c r="H188" s="1" t="n">
+        <v>44387.79284722222</v>
       </c>
       <c r="I188" t="n">
         <v>10</v>
@@ -14101,10 +13743,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H189" t="inlineStr">
-        <is>
-          <t>2021-07-10 19:01:25</t>
-        </is>
+      <c r="H189" s="1" t="n">
+        <v>44387.79265046296</v>
       </c>
       <c r="I189" t="n">
         <v>0</v>
@@ -14164,10 +13804,8 @@
           <t>4881465761</t>
         </is>
       </c>
-      <c r="H190" t="inlineStr">
-        <is>
-          <t>2021-07-10 19:01:08</t>
-        </is>
+      <c r="H190" s="1" t="n">
+        <v>44387.7924537037</v>
       </c>
       <c r="I190" t="n">
         <v>0</v>
@@ -14243,10 +13881,8 @@
           <t>4881215277</t>
         </is>
       </c>
-      <c r="H191" t="inlineStr">
-        <is>
-          <t>2021-07-10 19:00:48</t>
-        </is>
+      <c r="H191" s="1" t="n">
+        <v>44387.79222222222</v>
       </c>
       <c r="I191" t="n">
         <v>0</v>
@@ -14314,10 +13950,8 @@
           <t>4881449033</t>
         </is>
       </c>
-      <c r="H192" t="inlineStr">
-        <is>
-          <t>2021-07-10 18:59:40</t>
-        </is>
+      <c r="H192" s="1" t="n">
+        <v>44387.79143518519</v>
       </c>
       <c r="I192" t="n">
         <v>1</v>
@@ -14381,10 +14015,8 @@
           <t>4881102740</t>
         </is>
       </c>
-      <c r="H193" t="inlineStr">
-        <is>
-          <t>2021-07-10 18:58:57</t>
-        </is>
+      <c r="H193" s="1" t="n">
+        <v>44387.7909375</v>
       </c>
       <c r="I193" t="n">
         <v>0</v>
@@ -14448,10 +14080,8 @@
           <t>4881298189</t>
         </is>
       </c>
-      <c r="H194" t="inlineStr">
-        <is>
-          <t>2021-07-10 18:58:40</t>
-        </is>
+      <c r="H194" s="1" t="n">
+        <v>44387.79074074074</v>
       </c>
       <c r="I194" t="n">
         <v>2</v>
@@ -14519,10 +14149,8 @@
           <t>4881160366</t>
         </is>
       </c>
-      <c r="H195" t="inlineStr">
-        <is>
-          <t>2021-07-10 18:58:30</t>
-        </is>
+      <c r="H195" s="1" t="n">
+        <v>44387.790625</v>
       </c>
       <c r="I195" t="n">
         <v>0</v>
@@ -14590,10 +14218,8 @@
           <t>4881308725</t>
         </is>
       </c>
-      <c r="H196" t="inlineStr">
-        <is>
-          <t>2021-07-10 18:58:20</t>
-        </is>
+      <c r="H196" s="1" t="n">
+        <v>44387.79050925926</v>
       </c>
       <c r="I196" t="n">
         <v>0</v>
@@ -14665,10 +14291,8 @@
           <t>4881439142</t>
         </is>
       </c>
-      <c r="H197" t="inlineStr">
-        <is>
-          <t>2021-07-10 18:58:04</t>
-        </is>
+      <c r="H197" s="1" t="n">
+        <v>44387.79032407407</v>
       </c>
       <c r="I197" t="n">
         <v>0</v>
@@ -14728,10 +14352,8 @@
           <t>4881445098</t>
         </is>
       </c>
-      <c r="H198" t="inlineStr">
-        <is>
-          <t>2021-07-10 18:57:54</t>
-        </is>
+      <c r="H198" s="1" t="n">
+        <v>44387.79020833333</v>
       </c>
       <c r="I198" t="n">
         <v>0</v>
@@ -14795,10 +14417,8 @@
           <t>4881217894</t>
         </is>
       </c>
-      <c r="H199" t="inlineStr">
-        <is>
-          <t>2021-07-10 18:57:49</t>
-        </is>
+      <c r="H199" s="1" t="n">
+        <v>44387.79015046296</v>
       </c>
       <c r="I199" t="n">
         <v>0</v>
@@ -14870,10 +14490,8 @@
           <t>4881434452</t>
         </is>
       </c>
-      <c r="H200" t="inlineStr">
-        <is>
-          <t>2021-07-10 18:57:38</t>
-        </is>
+      <c r="H200" s="1" t="n">
+        <v>44387.79002314815</v>
       </c>
       <c r="I200" t="n">
         <v>0</v>
@@ -14941,10 +14559,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H201" t="inlineStr">
-        <is>
-          <t>2021-07-10 18:57:11</t>
-        </is>
+      <c r="H201" s="1" t="n">
+        <v>44387.78971064815</v>
       </c>
       <c r="I201" t="n">
         <v>0</v>
@@ -15012,10 +14628,8 @@
           <t>4881220191</t>
         </is>
       </c>
-      <c r="H202" t="inlineStr">
-        <is>
-          <t>2021-07-10 18:56:22</t>
-        </is>
+      <c r="H202" s="1" t="n">
+        <v>44387.78914351852</v>
       </c>
       <c r="I202" t="n">
         <v>0</v>
@@ -15087,10 +14701,8 @@
           <t>4881423398</t>
         </is>
       </c>
-      <c r="H203" t="inlineStr">
-        <is>
-          <t>2021-07-10 18:55:27</t>
-        </is>
+      <c r="H203" s="1" t="n">
+        <v>44387.78850694445</v>
       </c>
       <c r="I203" t="n">
         <v>0</v>
@@ -15162,10 +14774,8 @@
           <t>4881063580</t>
         </is>
       </c>
-      <c r="H204" t="inlineStr">
-        <is>
-          <t>2021-07-10 18:55:26</t>
-        </is>
+      <c r="H204" s="1" t="n">
+        <v>44387.78849537037</v>
       </c>
       <c r="I204" t="n">
         <v>0</v>
@@ -15229,10 +14839,8 @@
           <t>4881215277</t>
         </is>
       </c>
-      <c r="H205" t="inlineStr">
-        <is>
-          <t>2021-07-10 18:54:52</t>
-        </is>
+      <c r="H205" s="1" t="n">
+        <v>44387.78810185185</v>
       </c>
       <c r="I205" t="n">
         <v>0</v>
@@ -15300,10 +14908,8 @@
           <t>4881162191</t>
         </is>
       </c>
-      <c r="H206" t="inlineStr">
-        <is>
-          <t>2021-07-10 18:54:33</t>
-        </is>
+      <c r="H206" s="1" t="n">
+        <v>44387.78788194444</v>
       </c>
       <c r="I206" t="n">
         <v>0</v>
@@ -15371,10 +14977,8 @@
           <t>4881391115</t>
         </is>
       </c>
-      <c r="H207" t="inlineStr">
-        <is>
-          <t>2021-07-10 18:54:30</t>
-        </is>
+      <c r="H207" s="1" t="n">
+        <v>44387.78784722222</v>
       </c>
       <c r="I207" t="n">
         <v>1</v>
@@ -15438,10 +15042,8 @@
           <t>4881077532</t>
         </is>
       </c>
-      <c r="H208" t="inlineStr">
-        <is>
-          <t>2021-07-10 18:54:23</t>
-        </is>
+      <c r="H208" s="1" t="n">
+        <v>44387.78776620371</v>
       </c>
       <c r="I208" t="n">
         <v>0</v>
@@ -15509,10 +15111,8 @@
           <t>4881082004</t>
         </is>
       </c>
-      <c r="H209" t="inlineStr">
-        <is>
-          <t>2021-07-10 18:53:59</t>
-        </is>
+      <c r="H209" s="1" t="n">
+        <v>44387.78748842593</v>
       </c>
       <c r="I209" t="n">
         <v>0</v>
@@ -15584,10 +15184,8 @@
           <t>4881217894</t>
         </is>
       </c>
-      <c r="H210" t="inlineStr">
-        <is>
-          <t>2021-07-10 18:53:57</t>
-        </is>
+      <c r="H210" s="1" t="n">
+        <v>44387.78746527778</v>
       </c>
       <c r="I210" t="n">
         <v>0</v>
@@ -15655,10 +15253,8 @@
           <t>4881140328</t>
         </is>
       </c>
-      <c r="H211" t="inlineStr">
-        <is>
-          <t>2021-07-10 18:53:02</t>
-        </is>
+      <c r="H211" s="1" t="n">
+        <v>44387.78682870371</v>
       </c>
       <c r="I211" t="n">
         <v>0</v>
@@ -15722,10 +15318,8 @@
           <t>4881101442</t>
         </is>
       </c>
-      <c r="H212" t="inlineStr">
-        <is>
-          <t>2021-07-10 18:52:50</t>
-        </is>
+      <c r="H212" s="1" t="n">
+        <v>44387.78668981481</v>
       </c>
       <c r="I212" t="n">
         <v>0</v>
@@ -15801,10 +15395,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H213" t="inlineStr">
-        <is>
-          <t>2021-07-10 18:52:32</t>
-        </is>
+      <c r="H213" s="1" t="n">
+        <v>44387.78648148148</v>
       </c>
       <c r="I213" t="n">
         <v>0</v>
@@ -15872,10 +15464,8 @@
           <t>4881308725</t>
         </is>
       </c>
-      <c r="H214" t="inlineStr">
-        <is>
-          <t>2021-07-10 18:52:07</t>
-        </is>
+      <c r="H214" s="1" t="n">
+        <v>44387.78619212963</v>
       </c>
       <c r="I214" t="n">
         <v>0</v>
@@ -15951,10 +15541,8 @@
           <t>4881405738</t>
         </is>
       </c>
-      <c r="H215" t="inlineStr">
-        <is>
-          <t>2021-07-10 18:51:55</t>
-        </is>
+      <c r="H215" s="1" t="n">
+        <v>44387.78605324074</v>
       </c>
       <c r="I215" t="n">
         <v>0</v>
@@ -16026,10 +15614,8 @@
           <t>4881349011</t>
         </is>
       </c>
-      <c r="H216" t="inlineStr">
-        <is>
-          <t>2021-07-10 18:51:35</t>
-        </is>
+      <c r="H216" s="1" t="n">
+        <v>44387.78582175926</v>
       </c>
       <c r="I216" t="n">
         <v>0</v>
@@ -16097,10 +15683,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H217" t="inlineStr">
-        <is>
-          <t>2021-07-10 18:51:27</t>
-        </is>
+      <c r="H217" s="1" t="n">
+        <v>44387.78572916667</v>
       </c>
       <c r="I217" t="n">
         <v>6</v>
@@ -16164,10 +15748,8 @@
           <t>4881393395</t>
         </is>
       </c>
-      <c r="H218" t="inlineStr">
-        <is>
-          <t>2021-07-10 18:50:44</t>
-        </is>
+      <c r="H218" s="1" t="n">
+        <v>44387.78523148148</v>
       </c>
       <c r="I218" t="n">
         <v>1</v>
@@ -16239,10 +15821,8 @@
           <t>4881383428</t>
         </is>
       </c>
-      <c r="H219" t="inlineStr">
-        <is>
-          <t>2021-07-10 18:50:33</t>
-        </is>
+      <c r="H219" s="1" t="n">
+        <v>44387.78510416667</v>
       </c>
       <c r="I219" t="n">
         <v>0</v>
@@ -16310,10 +15890,8 @@
           <t>4881392570</t>
         </is>
       </c>
-      <c r="H220" t="inlineStr">
-        <is>
-          <t>2021-07-10 18:50:23</t>
-        </is>
+      <c r="H220" s="1" t="n">
+        <v>44387.78498842593</v>
       </c>
       <c r="I220" t="n">
         <v>0</v>
@@ -16385,10 +15963,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H221" t="inlineStr">
-        <is>
-          <t>2021-07-10 18:50:20</t>
-        </is>
+      <c r="H221" s="1" t="n">
+        <v>44387.7849537037</v>
       </c>
       <c r="I221" t="n">
         <v>2</v>
@@ -16460,10 +16036,8 @@
           <t>4881220191</t>
         </is>
       </c>
-      <c r="H222" t="inlineStr">
-        <is>
-          <t>2021-07-10 18:50:18</t>
-        </is>
+      <c r="H222" s="1" t="n">
+        <v>44387.78493055556</v>
       </c>
       <c r="I222" t="n">
         <v>0</v>
@@ -16531,10 +16105,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H223" t="inlineStr">
-        <is>
-          <t>2021-07-10 18:49:52</t>
-        </is>
+      <c r="H223" s="1" t="n">
+        <v>44387.78462962963</v>
       </c>
       <c r="I223" t="n">
         <v>2</v>
@@ -16610,10 +16182,8 @@
           <t>4881391115</t>
         </is>
       </c>
-      <c r="H224" t="inlineStr">
-        <is>
-          <t>2021-07-10 18:49:46</t>
-        </is>
+      <c r="H224" s="1" t="n">
+        <v>44387.78456018519</v>
       </c>
       <c r="I224" t="n">
         <v>2</v>
@@ -16681,10 +16251,8 @@
           <t>4881372553</t>
         </is>
       </c>
-      <c r="H225" t="inlineStr">
-        <is>
-          <t>2021-07-10 18:49:30</t>
-        </is>
+      <c r="H225" s="1" t="n">
+        <v>44387.784375</v>
       </c>
       <c r="I225" t="n">
         <v>1</v>
@@ -16752,10 +16320,8 @@
           <t>4881170190</t>
         </is>
       </c>
-      <c r="H226" t="inlineStr">
-        <is>
-          <t>2021-07-10 18:49:29</t>
-        </is>
+      <c r="H226" s="1" t="n">
+        <v>44387.78436342593</v>
       </c>
       <c r="I226" t="n">
         <v>0</v>
@@ -16827,10 +16393,8 @@
           <t>4881368668</t>
         </is>
       </c>
-      <c r="H227" t="inlineStr">
-        <is>
-          <t>2021-07-10 18:49:19</t>
-        </is>
+      <c r="H227" s="1" t="n">
+        <v>44387.78424768519</v>
       </c>
       <c r="I227" t="n">
         <v>1</v>
@@ -16902,10 +16466,8 @@
           <t>4881368668</t>
         </is>
       </c>
-      <c r="H228" t="inlineStr">
-        <is>
-          <t>2021-07-10 18:48:25</t>
-        </is>
+      <c r="H228" s="1" t="n">
+        <v>44387.78362268519</v>
       </c>
       <c r="I228" t="n">
         <v>0</v>
@@ -16981,10 +16543,8 @@
           <t>4881372553</t>
         </is>
       </c>
-      <c r="H229" t="inlineStr">
-        <is>
-          <t>2021-07-10 18:48:06</t>
-        </is>
+      <c r="H229" s="1" t="n">
+        <v>44387.78340277778</v>
       </c>
       <c r="I229" t="n">
         <v>1</v>
@@ -17052,10 +16612,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H230" t="inlineStr">
-        <is>
-          <t>2021-07-10 18:47:59</t>
-        </is>
+      <c r="H230" s="1" t="n">
+        <v>44387.78332175926</v>
       </c>
       <c r="I230" t="n">
         <v>0</v>
@@ -17131,10 +16689,8 @@
           <t>4881367224</t>
         </is>
       </c>
-      <c r="H231" t="inlineStr">
-        <is>
-          <t>2021-07-10 18:47:46</t>
-        </is>
+      <c r="H231" s="1" t="n">
+        <v>44387.78317129629</v>
       </c>
       <c r="I231" t="n">
         <v>0</v>
@@ -17210,10 +16766,8 @@
           <t>4881215277</t>
         </is>
       </c>
-      <c r="H232" t="inlineStr">
-        <is>
-          <t>2021-07-10 18:47:33</t>
-        </is>
+      <c r="H232" s="1" t="n">
+        <v>44387.78302083333</v>
       </c>
       <c r="I232" t="n">
         <v>0</v>
@@ -17289,10 +16843,8 @@
           <t>4881366216</t>
         </is>
       </c>
-      <c r="H233" t="inlineStr">
-        <is>
-          <t>2021-07-10 18:47:20</t>
-        </is>
+      <c r="H233" s="1" t="n">
+        <v>44387.78287037037</v>
       </c>
       <c r="I233" t="n">
         <v>0</v>
@@ -17360,10 +16912,8 @@
           <t>4881102740</t>
         </is>
       </c>
-      <c r="H234" t="inlineStr">
-        <is>
-          <t>2021-07-10 18:47:01</t>
-        </is>
+      <c r="H234" s="1" t="n">
+        <v>44387.78265046296</v>
       </c>
       <c r="I234" t="n">
         <v>0</v>
@@ -17431,10 +16981,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H235" t="inlineStr">
-        <is>
-          <t>2021-07-10 18:46:12</t>
-        </is>
+      <c r="H235" s="1" t="n">
+        <v>44387.78208333333</v>
       </c>
       <c r="I235" t="n">
         <v>0</v>
@@ -17498,10 +17046,8 @@
           <t>4881162191</t>
         </is>
       </c>
-      <c r="H236" t="inlineStr">
-        <is>
-          <t>2021-07-10 18:46:06</t>
-        </is>
+      <c r="H236" s="1" t="n">
+        <v>44387.78201388889</v>
       </c>
       <c r="I236" t="n">
         <v>2</v>
@@ -17577,10 +17123,8 @@
           <t>4881352944</t>
         </is>
       </c>
-      <c r="H237" t="inlineStr">
-        <is>
-          <t>2021-07-10 18:45:51</t>
-        </is>
+      <c r="H237" s="1" t="n">
+        <v>44387.78184027778</v>
       </c>
       <c r="I237" t="n">
         <v>0</v>
@@ -17652,10 +17196,8 @@
           <t>4881117566</t>
         </is>
       </c>
-      <c r="H238" t="inlineStr">
-        <is>
-          <t>2021-07-10 18:45:38</t>
-        </is>
+      <c r="H238" s="1" t="n">
+        <v>44387.78168981482</v>
       </c>
       <c r="I238" t="n">
         <v>1</v>
@@ -17731,10 +17273,8 @@
           <t>4881072756</t>
         </is>
       </c>
-      <c r="H239" t="inlineStr">
-        <is>
-          <t>2021-07-10 18:45:33</t>
-        </is>
+      <c r="H239" s="1" t="n">
+        <v>44387.78163194445</v>
       </c>
       <c r="I239" t="n">
         <v>0</v>
@@ -17802,10 +17342,8 @@
           <t>4881360343</t>
         </is>
       </c>
-      <c r="H240" t="inlineStr">
-        <is>
-          <t>2021-07-10 18:45:20</t>
-        </is>
+      <c r="H240" s="1" t="n">
+        <v>44387.78148148148</v>
       </c>
       <c r="I240" t="n">
         <v>0</v>
@@ -17881,10 +17419,8 @@
           <t>4881351747</t>
         </is>
       </c>
-      <c r="H241" t="inlineStr">
-        <is>
-          <t>2021-07-10 18:45:18</t>
-        </is>
+      <c r="H241" s="1" t="n">
+        <v>44387.78145833333</v>
       </c>
       <c r="I241" t="n">
         <v>0</v>
@@ -17944,10 +17480,8 @@
           <t>4881349011</t>
         </is>
       </c>
-      <c r="H242" t="inlineStr">
-        <is>
-          <t>2021-07-10 18:44:47</t>
-        </is>
+      <c r="H242" s="1" t="n">
+        <v>44387.78109953704</v>
       </c>
       <c r="I242" t="n">
         <v>0</v>
@@ -18023,10 +17557,8 @@
           <t>4881350286</t>
         </is>
       </c>
-      <c r="H243" t="inlineStr">
-        <is>
-          <t>2021-07-10 18:44:38</t>
-        </is>
+      <c r="H243" s="1" t="n">
+        <v>44387.78099537037</v>
       </c>
       <c r="I243" t="n">
         <v>0</v>
@@ -18086,10 +17618,8 @@
           <t>4881350077</t>
         </is>
       </c>
-      <c r="H244" t="inlineStr">
-        <is>
-          <t>2021-07-10 18:44:32</t>
-        </is>
+      <c r="H244" s="1" t="n">
+        <v>44387.78092592592</v>
       </c>
       <c r="I244" t="n">
         <v>0</v>
@@ -18157,10 +17687,8 @@
           <t>4881217894</t>
         </is>
       </c>
-      <c r="H245" t="inlineStr">
-        <is>
-          <t>2021-07-10 18:44:20</t>
-        </is>
+      <c r="H245" s="1" t="n">
+        <v>44387.78078703704</v>
       </c>
       <c r="I245" t="n">
         <v>0</v>
@@ -18232,10 +17760,8 @@
           <t>4881341555</t>
         </is>
       </c>
-      <c r="H246" t="inlineStr">
-        <is>
-          <t>2021-07-10 18:43:00</t>
-        </is>
+      <c r="H246" s="1" t="n">
+        <v>44387.77986111111</v>
       </c>
       <c r="I246" t="n">
         <v>0</v>
@@ -18307,10 +17833,8 @@
           <t>4881335082</t>
         </is>
       </c>
-      <c r="H247" t="inlineStr">
-        <is>
-          <t>2021-07-10 18:42:18</t>
-        </is>
+      <c r="H247" s="1" t="n">
+        <v>44387.779375</v>
       </c>
       <c r="I247" t="n">
         <v>0</v>
@@ -18378,10 +17902,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H248" t="inlineStr">
-        <is>
-          <t>2021-07-10 18:42:07</t>
-        </is>
+      <c r="H248" s="1" t="n">
+        <v>44387.77924768518</v>
       </c>
       <c r="I248" t="n">
         <v>0</v>
@@ -18459,10 +17981,8 @@
           <t>4881088439</t>
         </is>
       </c>
-      <c r="H249" t="inlineStr">
-        <is>
-          <t>2021-07-10 18:41:41</t>
-        </is>
+      <c r="H249" s="1" t="n">
+        <v>44387.77894675926</v>
       </c>
       <c r="I249" t="n">
         <v>0</v>
@@ -18534,10 +18054,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H250" t="inlineStr">
-        <is>
-          <t>2021-07-10 18:41:19</t>
-        </is>
+      <c r="H250" s="1" t="n">
+        <v>44387.77869212963</v>
       </c>
       <c r="I250" t="n">
         <v>0</v>
@@ -18605,10 +18123,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H251" t="inlineStr">
-        <is>
-          <t>2021-07-10 18:40:37</t>
-        </is>
+      <c r="H251" s="1" t="n">
+        <v>44387.77820601852</v>
       </c>
       <c r="I251" t="n">
         <v>0</v>
@@ -18680,10 +18196,8 @@
           <t>4881134631</t>
         </is>
       </c>
-      <c r="H252" t="inlineStr">
-        <is>
-          <t>2021-07-10 18:40:30</t>
-        </is>
+      <c r="H252" s="1" t="n">
+        <v>44387.778125</v>
       </c>
       <c r="I252" t="n">
         <v>0</v>
@@ -18761,10 +18275,8 @@
           <t>4881318066</t>
         </is>
       </c>
-      <c r="H253" t="inlineStr">
-        <is>
-          <t>2021-07-10 18:40:19</t>
-        </is>
+      <c r="H253" s="1" t="n">
+        <v>44387.77799768518</v>
       </c>
       <c r="I253" t="n">
         <v>0</v>
@@ -18828,10 +18340,8 @@
           <t>4881320153</t>
         </is>
       </c>
-      <c r="H254" t="inlineStr">
-        <is>
-          <t>2021-07-10 18:40:04</t>
-        </is>
+      <c r="H254" s="1" t="n">
+        <v>44387.77782407407</v>
       </c>
       <c r="I254" t="n">
         <v>5</v>
@@ -18903,10 +18413,8 @@
           <t>4881220191</t>
         </is>
       </c>
-      <c r="H255" t="inlineStr">
-        <is>
-          <t>2021-07-10 18:39:54</t>
-        </is>
+      <c r="H255" s="1" t="n">
+        <v>44387.77770833333</v>
       </c>
       <c r="I255" t="n">
         <v>0</v>
@@ -18982,10 +18490,8 @@
           <t>4881207040</t>
         </is>
       </c>
-      <c r="H256" t="inlineStr">
-        <is>
-          <t>2021-07-10 18:39:38</t>
-        </is>
+      <c r="H256" s="1" t="n">
+        <v>44387.77752314815</v>
       </c>
       <c r="I256" t="n">
         <v>1</v>
@@ -19053,10 +18559,8 @@
           <t>4881072756</t>
         </is>
       </c>
-      <c r="H257" t="inlineStr">
-        <is>
-          <t>2021-07-10 18:39:30</t>
-        </is>
+      <c r="H257" s="1" t="n">
+        <v>44387.77743055556</v>
       </c>
       <c r="I257" t="n">
         <v>0</v>
@@ -19128,10 +18632,8 @@
           <t>4881308725</t>
         </is>
       </c>
-      <c r="H258" t="inlineStr">
-        <is>
-          <t>2021-07-10 18:39:25</t>
-        </is>
+      <c r="H258" s="1" t="n">
+        <v>44387.77737268519</v>
       </c>
       <c r="I258" t="n">
         <v>0</v>
@@ -19195,10 +18697,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H259" t="inlineStr">
-        <is>
-          <t>2021-07-10 18:39:19</t>
-        </is>
+      <c r="H259" s="1" t="n">
+        <v>44387.77730324074</v>
       </c>
       <c r="I259" t="n">
         <v>1</v>
@@ -19274,10 +18774,8 @@
           <t>4881212994</t>
         </is>
       </c>
-      <c r="H260" t="inlineStr">
-        <is>
-          <t>2021-07-10 18:39:17</t>
-        </is>
+      <c r="H260" s="1" t="n">
+        <v>44387.7772800926</v>
       </c>
       <c r="I260" t="n">
         <v>0</v>
@@ -19353,10 +18851,8 @@
           <t>4881304200</t>
         </is>
       </c>
-      <c r="H261" t="inlineStr">
-        <is>
-          <t>2021-07-10 18:38:43</t>
-        </is>
+      <c r="H261" s="1" t="n">
+        <v>44387.77688657407</v>
       </c>
       <c r="I261" t="n">
         <v>0</v>
@@ -19420,10 +18916,8 @@
           <t>4881304066</t>
         </is>
       </c>
-      <c r="H262" t="inlineStr">
-        <is>
-          <t>2021-07-10 18:38:40</t>
-        </is>
+      <c r="H262" s="1" t="n">
+        <v>44387.77685185185</v>
       </c>
       <c r="I262" t="n">
         <v>0</v>
@@ -19499,10 +18993,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H263" t="inlineStr">
-        <is>
-          <t>2021-07-10 18:38:21</t>
-        </is>
+      <c r="H263" s="1" t="n">
+        <v>44387.77663194444</v>
       </c>
       <c r="I263" t="n">
         <v>2</v>
@@ -19570,10 +19062,8 @@
           <t>4881302591</t>
         </is>
       </c>
-      <c r="H264" t="inlineStr">
-        <is>
-          <t>2021-07-10 18:38:04</t>
-        </is>
+      <c r="H264" s="1" t="n">
+        <v>44387.77643518519</v>
       </c>
       <c r="I264" t="n">
         <v>0</v>
@@ -19641,10 +19131,8 @@
           <t>4881305764</t>
         </is>
       </c>
-      <c r="H265" t="inlineStr">
-        <is>
-          <t>2021-07-10 18:38:01</t>
-        </is>
+      <c r="H265" s="1" t="n">
+        <v>44387.77640046296</v>
       </c>
       <c r="I265" t="n">
         <v>0</v>
@@ -19712,10 +19200,8 @@
           <t>4881072756</t>
         </is>
       </c>
-      <c r="H266" t="inlineStr">
-        <is>
-          <t>2021-07-10 18:37:59</t>
-        </is>
+      <c r="H266" s="1" t="n">
+        <v>44387.77637731482</v>
       </c>
       <c r="I266" t="n">
         <v>0</v>
@@ -19783,10 +19269,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H267" t="inlineStr">
-        <is>
-          <t>2021-07-10 18:37:52</t>
-        </is>
+      <c r="H267" s="1" t="n">
+        <v>44387.7762962963</v>
       </c>
       <c r="I267" t="n">
         <v>0</v>
@@ -19854,10 +19338,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H268" t="inlineStr">
-        <is>
-          <t>2021-07-10 18:37:33</t>
-        </is>
+      <c r="H268" s="1" t="n">
+        <v>44387.77607638889</v>
       </c>
       <c r="I268" t="n">
         <v>0</v>
@@ -19933,10 +19415,8 @@
           <t>4881220191</t>
         </is>
       </c>
-      <c r="H269" t="inlineStr">
-        <is>
-          <t>2021-07-10 18:37:17</t>
-        </is>
+      <c r="H269" s="1" t="n">
+        <v>44387.7758912037</v>
       </c>
       <c r="I269" t="n">
         <v>0</v>
@@ -20012,10 +19492,8 @@
           <t>4881298189</t>
         </is>
       </c>
-      <c r="H270" t="inlineStr">
-        <is>
-          <t>2021-07-10 18:37:02</t>
-        </is>
+      <c r="H270" s="1" t="n">
+        <v>44387.77571759259</v>
       </c>
       <c r="I270" t="n">
         <v>3</v>
@@ -20083,10 +19561,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H271" t="inlineStr">
-        <is>
-          <t>2021-07-10 18:36:36</t>
-        </is>
+      <c r="H271" s="1" t="n">
+        <v>44387.77541666666</v>
       </c>
       <c r="I271" t="n">
         <v>0</v>
@@ -20150,10 +19626,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H272" t="inlineStr">
-        <is>
-          <t>2021-07-10 18:36:33</t>
-        </is>
+      <c r="H272" s="1" t="n">
+        <v>44387.77538194445</v>
       </c>
       <c r="I272" t="n">
         <v>0</v>
@@ -20217,10 +19691,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H273" t="inlineStr">
-        <is>
-          <t>2021-07-10 18:36:10</t>
-        </is>
+      <c r="H273" s="1" t="n">
+        <v>44387.77511574074</v>
       </c>
       <c r="I273" t="n">
         <v>7</v>
@@ -20292,10 +19764,8 @@
           <t>4881295097</t>
         </is>
       </c>
-      <c r="H274" t="inlineStr">
-        <is>
-          <t>2021-07-10 18:35:39</t>
-        </is>
+      <c r="H274" s="1" t="n">
+        <v>44387.77475694445</v>
       </c>
       <c r="I274" t="n">
         <v>2</v>
@@ -20363,10 +19833,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H275" t="inlineStr">
-        <is>
-          <t>2021-07-10 18:35:33</t>
-        </is>
+      <c r="H275" s="1" t="n">
+        <v>44387.7746875</v>
       </c>
       <c r="I275" t="n">
         <v>2</v>
@@ -20430,10 +19898,8 @@
           <t>4881286366</t>
         </is>
       </c>
-      <c r="H276" t="inlineStr">
-        <is>
-          <t>2021-07-10 18:35:30</t>
-        </is>
+      <c r="H276" s="1" t="n">
+        <v>44387.77465277778</v>
       </c>
       <c r="I276" t="n">
         <v>0</v>
@@ -20501,10 +19967,8 @@
           <t>4881279462</t>
         </is>
       </c>
-      <c r="H277" t="inlineStr">
-        <is>
-          <t>2021-07-10 18:35:05</t>
-        </is>
+      <c r="H277" s="1" t="n">
+        <v>44387.77436342592</v>
       </c>
       <c r="I277" t="n">
         <v>0</v>
@@ -20572,10 +20036,8 @@
           <t>4881169428</t>
         </is>
       </c>
-      <c r="H278" t="inlineStr">
-        <is>
-          <t>2021-07-10 18:34:47</t>
-        </is>
+      <c r="H278" s="1" t="n">
+        <v>44387.77415509259</v>
       </c>
       <c r="I278" t="n">
         <v>0</v>
@@ -20651,10 +20113,8 @@
           <t>4881278665</t>
         </is>
       </c>
-      <c r="H279" t="inlineStr">
-        <is>
-          <t>2021-07-10 18:34:44</t>
-        </is>
+      <c r="H279" s="1" t="n">
+        <v>44387.77412037037</v>
       </c>
       <c r="I279" t="n">
         <v>0</v>
@@ -20730,10 +20190,8 @@
           <t>4881277721</t>
         </is>
       </c>
-      <c r="H280" t="inlineStr">
-        <is>
-          <t>2021-07-10 18:34:18</t>
-        </is>
+      <c r="H280" s="1" t="n">
+        <v>44387.77381944445</v>
       </c>
       <c r="I280" t="n">
         <v>0</v>
@@ -20797,10 +20255,8 @@
           <t>4881237733</t>
         </is>
       </c>
-      <c r="H281" t="inlineStr">
-        <is>
-          <t>2021-07-10 18:34:01</t>
-        </is>
+      <c r="H281" s="1" t="n">
+        <v>44387.77362268518</v>
       </c>
       <c r="I281" t="n">
         <v>0</v>
@@ -20868,10 +20324,8 @@
           <t>4881220191</t>
         </is>
       </c>
-      <c r="H282" t="inlineStr">
-        <is>
-          <t>2021-07-10 18:33:56</t>
-        </is>
+      <c r="H282" s="1" t="n">
+        <v>44387.77356481482</v>
       </c>
       <c r="I282" t="n">
         <v>0</v>
@@ -20935,10 +20389,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H283" t="inlineStr">
-        <is>
-          <t>2021-07-10 18:33:50</t>
-        </is>
+      <c r="H283" s="1" t="n">
+        <v>44387.77349537037</v>
       </c>
       <c r="I283" t="n">
         <v>4</v>
@@ -21014,10 +20466,8 @@
           <t>4881079269</t>
         </is>
       </c>
-      <c r="H284" t="inlineStr">
-        <is>
-          <t>2021-07-10 18:33:10</t>
-        </is>
+      <c r="H284" s="1" t="n">
+        <v>44387.77303240741</v>
       </c>
       <c r="I284" t="n">
         <v>0</v>
@@ -21085,10 +20535,8 @@
           <t>4881171408</t>
         </is>
       </c>
-      <c r="H285" t="inlineStr">
-        <is>
-          <t>2021-07-10 18:33:09</t>
-        </is>
+      <c r="H285" s="1" t="n">
+        <v>44387.77302083333</v>
       </c>
       <c r="I285" t="n">
         <v>1</v>
@@ -21156,10 +20604,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H286" t="inlineStr">
-        <is>
-          <t>2021-07-10 18:33:08</t>
-        </is>
+      <c r="H286" s="1" t="n">
+        <v>44387.77300925926</v>
       </c>
       <c r="I286" t="n">
         <v>0</v>
@@ -21227,10 +20673,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H287" t="inlineStr">
-        <is>
-          <t>2021-07-10 18:32:53</t>
-        </is>
+      <c r="H287" s="1" t="n">
+        <v>44387.77283564815</v>
       </c>
       <c r="I287" t="n">
         <v>4</v>
@@ -21298,10 +20742,8 @@
           <t>4881058357</t>
         </is>
       </c>
-      <c r="H288" t="inlineStr">
-        <is>
-          <t>2021-07-10 18:32:53</t>
-        </is>
+      <c r="H288" s="1" t="n">
+        <v>44387.77283564815</v>
       </c>
       <c r="I288" t="n">
         <v>0</v>
@@ -21373,10 +20815,8 @@
           <t>4881169428</t>
         </is>
       </c>
-      <c r="H289" t="inlineStr">
-        <is>
-          <t>2021-07-10 18:32:49</t>
-        </is>
+      <c r="H289" s="1" t="n">
+        <v>44387.77278935185</v>
       </c>
       <c r="I289" t="n">
         <v>1</v>
@@ -21440,10 +20880,8 @@
           <t>4881268125</t>
         </is>
       </c>
-      <c r="H290" t="inlineStr">
-        <is>
-          <t>2021-07-10 18:32:33</t>
-        </is>
+      <c r="H290" s="1" t="n">
+        <v>44387.77260416667</v>
       </c>
       <c r="I290" t="n">
         <v>0</v>
@@ -21519,10 +20957,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H291" t="inlineStr">
-        <is>
-          <t>2021-07-10 18:32:16</t>
-        </is>
+      <c r="H291" s="1" t="n">
+        <v>44387.77240740741</v>
       </c>
       <c r="I291" t="n">
         <v>0</v>
@@ -21594,10 +21030,8 @@
           <t>4881171408</t>
         </is>
       </c>
-      <c r="H292" t="inlineStr">
-        <is>
-          <t>2021-07-10 18:31:36</t>
-        </is>
+      <c r="H292" s="1" t="n">
+        <v>44387.77194444444</v>
       </c>
       <c r="I292" t="n">
         <v>1</v>
@@ -21665,10 +21099,8 @@
           <t>4881079269</t>
         </is>
       </c>
-      <c r="H293" t="inlineStr">
-        <is>
-          <t>2021-07-10 18:31:22</t>
-        </is>
+      <c r="H293" s="1" t="n">
+        <v>44387.77178240741</v>
       </c>
       <c r="I293" t="n">
         <v>0</v>
@@ -21736,10 +21168,8 @@
           <t>4881220191</t>
         </is>
       </c>
-      <c r="H294" t="inlineStr">
-        <is>
-          <t>2021-07-10 18:31:20</t>
-        </is>
+      <c r="H294" s="1" t="n">
+        <v>44387.77175925926</v>
       </c>
       <c r="I294" t="n">
         <v>0</v>
@@ -21807,10 +21237,8 @@
           <t>4881253512</t>
         </is>
       </c>
-      <c r="H295" t="inlineStr">
-        <is>
-          <t>2021-07-10 18:30:29</t>
-        </is>
+      <c r="H295" s="1" t="n">
+        <v>44387.77116898148</v>
       </c>
       <c r="I295" t="n">
         <v>0</v>
@@ -21886,10 +21314,8 @@
           <t>4881249134</t>
         </is>
       </c>
-      <c r="H296" t="inlineStr">
-        <is>
-          <t>2021-07-10 18:30:24</t>
-        </is>
+      <c r="H296" s="1" t="n">
+        <v>44387.77111111111</v>
       </c>
       <c r="I296" t="n">
         <v>0</v>
@@ -21957,10 +21383,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H297" t="inlineStr">
-        <is>
-          <t>2021-07-10 18:30:10</t>
-        </is>
+      <c r="H297" s="1" t="n">
+        <v>44387.77094907407</v>
       </c>
       <c r="I297" t="n">
         <v>3</v>
@@ -22032,10 +21456,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H298" t="inlineStr">
-        <is>
-          <t>2021-07-10 18:30:09</t>
-        </is>
+      <c r="H298" s="1" t="n">
+        <v>44387.7709375</v>
       </c>
       <c r="I298" t="n">
         <v>0</v>
@@ -22103,10 +21525,8 @@
           <t>4881252730</t>
         </is>
       </c>
-      <c r="H299" t="inlineStr">
-        <is>
-          <t>2021-07-10 18:30:08</t>
-        </is>
+      <c r="H299" s="1" t="n">
+        <v>44387.77092592593</v>
       </c>
       <c r="I299" t="n">
         <v>0</v>
@@ -22182,10 +21602,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H300" t="inlineStr">
-        <is>
-          <t>2021-07-10 18:29:45</t>
-        </is>
+      <c r="H300" s="1" t="n">
+        <v>44387.77065972222</v>
       </c>
       <c r="I300" t="n">
         <v>0</v>
@@ -22257,10 +21675,8 @@
           <t>4881247258</t>
         </is>
       </c>
-      <c r="H301" t="inlineStr">
-        <is>
-          <t>2021-07-10 18:29:35</t>
-        </is>
+      <c r="H301" s="1" t="n">
+        <v>44387.77054398148</v>
       </c>
       <c r="I301" t="n">
         <v>2</v>
@@ -22336,10 +21752,8 @@
           <t>4881251090</t>
         </is>
       </c>
-      <c r="H302" t="inlineStr">
-        <is>
-          <t>2021-07-10 18:29:21</t>
-        </is>
+      <c r="H302" s="1" t="n">
+        <v>44387.77038194444</v>
       </c>
       <c r="I302" t="n">
         <v>0</v>
@@ -22415,10 +21829,8 @@
           <t>4881090073</t>
         </is>
       </c>
-      <c r="H303" t="inlineStr">
-        <is>
-          <t>2021-07-10 18:28:43</t>
-        </is>
+      <c r="H303" s="1" t="n">
+        <v>44387.76994212963</v>
       </c>
       <c r="I303" t="n">
         <v>0</v>
@@ -22490,10 +21902,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H304" t="inlineStr">
-        <is>
-          <t>2021-07-10 18:28:31</t>
-        </is>
+      <c r="H304" s="1" t="n">
+        <v>44387.76980324074</v>
       </c>
       <c r="I304" t="n">
         <v>0</v>
@@ -22569,10 +21979,8 @@
           <t>4881240064</t>
         </is>
       </c>
-      <c r="H305" t="inlineStr">
-        <is>
-          <t>2021-07-10 18:28:25</t>
-        </is>
+      <c r="H305" s="1" t="n">
+        <v>44387.7697337963</v>
       </c>
       <c r="I305" t="n">
         <v>0</v>
@@ -22648,10 +22056,8 @@
           <t>4881234085</t>
         </is>
       </c>
-      <c r="H306" t="inlineStr">
-        <is>
-          <t>2021-07-10 18:28:18</t>
-        </is>
+      <c r="H306" s="1" t="n">
+        <v>44387.76965277778</v>
       </c>
       <c r="I306" t="n">
         <v>0</v>
@@ -22723,10 +22129,8 @@
           <t>4881229771</t>
         </is>
       </c>
-      <c r="H307" t="inlineStr">
-        <is>
-          <t>2021-07-10 18:28:17</t>
-        </is>
+      <c r="H307" s="1" t="n">
+        <v>44387.7696412037</v>
       </c>
       <c r="I307" t="n">
         <v>0</v>
@@ -22790,10 +22194,8 @@
           <t>4881233726</t>
         </is>
       </c>
-      <c r="H308" t="inlineStr">
-        <is>
-          <t>2021-07-10 18:28:09</t>
-        </is>
+      <c r="H308" s="1" t="n">
+        <v>44387.76954861111</v>
       </c>
       <c r="I308" t="n">
         <v>2</v>
@@ -22861,10 +22263,8 @@
           <t>4881237733</t>
         </is>
       </c>
-      <c r="H309" t="inlineStr">
-        <is>
-          <t>2021-07-10 18:27:52</t>
-        </is>
+      <c r="H309" s="1" t="n">
+        <v>44387.76935185185</v>
       </c>
       <c r="I309" t="n">
         <v>0</v>
@@ -22932,10 +22332,8 @@
           <t>4881228553</t>
         </is>
       </c>
-      <c r="H310" t="inlineStr">
-        <is>
-          <t>2021-07-10 18:27:42</t>
-        </is>
+      <c r="H310" s="1" t="n">
+        <v>44387.76923611111</v>
       </c>
       <c r="I310" t="n">
         <v>0</v>
@@ -23003,10 +22401,8 @@
           <t>4881237378</t>
         </is>
       </c>
-      <c r="H311" t="inlineStr">
-        <is>
-          <t>2021-07-10 18:27:42</t>
-        </is>
+      <c r="H311" s="1" t="n">
+        <v>44387.76923611111</v>
       </c>
       <c r="I311" t="n">
         <v>0</v>
@@ -23074,10 +22470,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H312" t="inlineStr">
-        <is>
-          <t>2021-07-10 18:27:33</t>
-        </is>
+      <c r="H312" s="1" t="n">
+        <v>44387.76913194444</v>
       </c>
       <c r="I312" t="n">
         <v>0</v>
@@ -23149,10 +22543,8 @@
           <t>4881212513</t>
         </is>
       </c>
-      <c r="H313" t="inlineStr">
-        <is>
-          <t>2021-07-10 18:27:31</t>
-        </is>
+      <c r="H313" s="1" t="n">
+        <v>44387.7691087963</v>
       </c>
       <c r="I313" t="n">
         <v>0</v>
@@ -23224,10 +22616,8 @@
           <t>4881220191</t>
         </is>
       </c>
-      <c r="H314" t="inlineStr">
-        <is>
-          <t>2021-07-10 18:27:29</t>
-        </is>
+      <c r="H314" s="1" t="n">
+        <v>44387.76908564815</v>
       </c>
       <c r="I314" t="n">
         <v>5</v>
@@ -23303,10 +22693,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H315" t="inlineStr">
-        <is>
-          <t>2021-07-10 18:27:28</t>
-        </is>
+      <c r="H315" s="1" t="n">
+        <v>44387.76907407407</v>
       </c>
       <c r="I315" t="n">
         <v>0</v>
@@ -23374,10 +22762,8 @@
           <t>4881231785</t>
         </is>
       </c>
-      <c r="H316" t="inlineStr">
-        <is>
-          <t>2021-07-10 18:27:21</t>
-        </is>
+      <c r="H316" s="1" t="n">
+        <v>44387.76899305556</v>
       </c>
       <c r="I316" t="n">
         <v>0</v>
@@ -23449,10 +22835,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H317" t="inlineStr">
-        <is>
-          <t>2021-07-10 18:27:13</t>
-        </is>
+      <c r="H317" s="1" t="n">
+        <v>44387.76890046296</v>
       </c>
       <c r="I317" t="n">
         <v>21</v>
@@ -23520,10 +22904,8 @@
           <t>4881227100</t>
         </is>
       </c>
-      <c r="H318" t="inlineStr">
-        <is>
-          <t>2021-07-10 18:27:01</t>
-        </is>
+      <c r="H318" s="1" t="n">
+        <v>44387.76876157407</v>
       </c>
       <c r="I318" t="n">
         <v>0</v>
@@ -23595,10 +22977,8 @@
           <t>4881230888</t>
         </is>
       </c>
-      <c r="H319" t="inlineStr">
-        <is>
-          <t>2021-07-10 18:26:58</t>
-        </is>
+      <c r="H319" s="1" t="n">
+        <v>44387.76872685185</v>
       </c>
       <c r="I319" t="n">
         <v>4</v>
@@ -23666,10 +23046,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H320" t="inlineStr">
-        <is>
-          <t>2021-07-10 18:26:53</t>
-        </is>
+      <c r="H320" s="1" t="n">
+        <v>44387.76866898148</v>
       </c>
       <c r="I320" t="n">
         <v>2</v>
@@ -23741,10 +23119,8 @@
           <t>4881230401</t>
         </is>
       </c>
-      <c r="H321" t="inlineStr">
-        <is>
-          <t>2021-07-10 18:26:46</t>
-        </is>
+      <c r="H321" s="1" t="n">
+        <v>44387.76858796296</v>
       </c>
       <c r="I321" t="n">
         <v>0</v>
@@ -23820,10 +23196,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H322" t="inlineStr">
-        <is>
-          <t>2021-07-10 18:26:38</t>
-        </is>
+      <c r="H322" s="1" t="n">
+        <v>44387.76849537037</v>
       </c>
       <c r="I322" t="n">
         <v>1</v>
@@ -23891,10 +23265,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H323" t="inlineStr">
-        <is>
-          <t>2021-07-10 18:26:36</t>
-        </is>
+      <c r="H323" s="1" t="n">
+        <v>44387.76847222223</v>
       </c>
       <c r="I323" t="n">
         <v>0</v>
@@ -23970,10 +23342,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H324" t="inlineStr">
-        <is>
-          <t>2021-07-10 18:26:32</t>
-        </is>
+      <c r="H324" s="1" t="n">
+        <v>44387.76842592593</v>
       </c>
       <c r="I324" t="n">
         <v>2</v>
@@ -24041,10 +23411,8 @@
           <t>4881224454</t>
         </is>
       </c>
-      <c r="H325" t="inlineStr">
-        <is>
-          <t>2021-07-10 18:26:24</t>
-        </is>
+      <c r="H325" s="1" t="n">
+        <v>44387.76833333333</v>
       </c>
       <c r="I325" t="n">
         <v>3</v>
@@ -24116,10 +23484,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H326" t="inlineStr">
-        <is>
-          <t>2021-07-10 18:26:21</t>
-        </is>
+      <c r="H326" s="1" t="n">
+        <v>44387.76829861111</v>
       </c>
       <c r="I326" t="n">
         <v>2</v>
@@ -24191,10 +23557,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H327" t="inlineStr">
-        <is>
-          <t>2021-07-10 18:26:15</t>
-        </is>
+      <c r="H327" s="1" t="n">
+        <v>44387.76822916666</v>
       </c>
       <c r="I327" t="n">
         <v>0</v>
@@ -24266,10 +23630,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H328" t="inlineStr">
-        <is>
-          <t>2021-07-10 18:26:13</t>
-        </is>
+      <c r="H328" s="1" t="n">
+        <v>44387.76820601852</v>
       </c>
       <c r="I328" t="n">
         <v>0</v>
@@ -24341,10 +23703,8 @@
           <t>4881218969</t>
         </is>
       </c>
-      <c r="H329" t="inlineStr">
-        <is>
-          <t>2021-07-10 18:26:11</t>
-        </is>
+      <c r="H329" s="1" t="n">
+        <v>44387.76818287037</v>
       </c>
       <c r="I329" t="n">
         <v>0</v>
@@ -24412,10 +23772,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H330" t="inlineStr">
-        <is>
-          <t>2021-07-10 18:25:45</t>
-        </is>
+      <c r="H330" s="1" t="n">
+        <v>44387.76788194444</v>
       </c>
       <c r="I330" t="n">
         <v>0</v>
@@ -24479,10 +23837,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H331" t="inlineStr">
-        <is>
-          <t>2021-07-10 18:25:20</t>
-        </is>
+      <c r="H331" s="1" t="n">
+        <v>44387.76759259259</v>
       </c>
       <c r="I331" t="n">
         <v>0</v>
@@ -24554,10 +23910,8 @@
           <t>4881212994</t>
         </is>
       </c>
-      <c r="H332" t="inlineStr">
-        <is>
-          <t>2021-07-10 18:25:07</t>
-        </is>
+      <c r="H332" s="1" t="n">
+        <v>44387.76744212963</v>
       </c>
       <c r="I332" t="n">
         <v>1</v>
@@ -24621,10 +23975,8 @@
           <t>4881212800</t>
         </is>
       </c>
-      <c r="H333" t="inlineStr">
-        <is>
-          <t>2021-07-10 18:25:01</t>
-        </is>
+      <c r="H333" s="1" t="n">
+        <v>44387.76737268519</v>
       </c>
       <c r="I333" t="n">
         <v>19</v>
@@ -24700,10 +24052,8 @@
           <t>4881221134</t>
         </is>
       </c>
-      <c r="H334" t="inlineStr">
-        <is>
-          <t>2021-07-10 18:25:00</t>
-        </is>
+      <c r="H334" s="1" t="n">
+        <v>44387.76736111111</v>
       </c>
       <c r="I334" t="n">
         <v>0</v>
@@ -24775,10 +24125,8 @@
           <t>4881212513</t>
         </is>
       </c>
-      <c r="H335" t="inlineStr">
-        <is>
-          <t>2021-07-10 18:24:53</t>
-        </is>
+      <c r="H335" s="1" t="n">
+        <v>44387.76728009259</v>
       </c>
       <c r="I335" t="n">
         <v>0</v>
@@ -24842,10 +24190,8 @@
           <t>4881220271</t>
         </is>
       </c>
-      <c r="H336" t="inlineStr">
-        <is>
-          <t>2021-07-10 18:24:39</t>
-        </is>
+      <c r="H336" s="1" t="n">
+        <v>44387.76711805556</v>
       </c>
       <c r="I336" t="n">
         <v>0</v>
@@ -24905,10 +24251,8 @@
           <t>4881220191</t>
         </is>
       </c>
-      <c r="H337" t="inlineStr">
-        <is>
-          <t>2021-07-10 18:24:38</t>
-        </is>
+      <c r="H337" s="1" t="n">
+        <v>44387.76710648148</v>
       </c>
       <c r="I337" t="n">
         <v>0</v>
@@ -24976,10 +24320,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H338" t="inlineStr">
-        <is>
-          <t>2021-07-10 18:24:35</t>
-        </is>
+      <c r="H338" s="1" t="n">
+        <v>44387.76707175926</v>
       </c>
       <c r="I338" t="n">
         <v>0</v>
@@ -25051,10 +24393,8 @@
           <t>4881215277</t>
         </is>
       </c>
-      <c r="H339" t="inlineStr">
-        <is>
-          <t>2021-07-10 18:24:31</t>
-        </is>
+      <c r="H339" s="1" t="n">
+        <v>44387.76702546296</v>
       </c>
       <c r="I339" t="n">
         <v>6</v>
@@ -25126,10 +24466,8 @@
           <t>4881171408</t>
         </is>
       </c>
-      <c r="H340" t="inlineStr">
-        <is>
-          <t>2021-07-10 18:24:13</t>
-        </is>
+      <c r="H340" s="1" t="n">
+        <v>44387.76681712963</v>
       </c>
       <c r="I340" t="n">
         <v>9</v>
@@ -25197,10 +24535,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H341" t="inlineStr">
-        <is>
-          <t>2021-07-10 18:24:09</t>
-        </is>
+      <c r="H341" s="1" t="n">
+        <v>44387.76677083333</v>
       </c>
       <c r="I341" t="n">
         <v>0</v>
@@ -25268,10 +24604,8 @@
           <t>4881204420</t>
         </is>
       </c>
-      <c r="H342" t="inlineStr">
-        <is>
-          <t>2021-07-10 18:24:07</t>
-        </is>
+      <c r="H342" s="1" t="n">
+        <v>44387.76674768519</v>
       </c>
       <c r="I342" t="n">
         <v>0</v>
@@ -25347,10 +24681,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H343" t="inlineStr">
-        <is>
-          <t>2021-07-10 18:24:01</t>
-        </is>
+      <c r="H343" s="1" t="n">
+        <v>44387.76667824074</v>
       </c>
       <c r="I343" t="n">
         <v>0</v>
@@ -25414,10 +24746,8 @@
           <t>4881210102</t>
         </is>
       </c>
-      <c r="H344" t="inlineStr">
-        <is>
-          <t>2021-07-10 18:23:46</t>
-        </is>
+      <c r="H344" s="1" t="n">
+        <v>44387.76650462963</v>
       </c>
       <c r="I344" t="n">
         <v>2</v>
@@ -25477,10 +24807,8 @@
           <t>4881207808</t>
         </is>
       </c>
-      <c r="H345" t="inlineStr">
-        <is>
-          <t>2021-07-10 18:23:40</t>
-        </is>
+      <c r="H345" s="1" t="n">
+        <v>44387.76643518519</v>
       </c>
       <c r="I345" t="n">
         <v>7</v>
@@ -25552,10 +24880,8 @@
           <t>4881207758</t>
         </is>
       </c>
-      <c r="H346" t="inlineStr">
-        <is>
-          <t>2021-07-10 18:23:39</t>
-        </is>
+      <c r="H346" s="1" t="n">
+        <v>44387.76642361111</v>
       </c>
       <c r="I346" t="n">
         <v>0</v>
@@ -25619,10 +24945,8 @@
           <t>4881203156</t>
         </is>
       </c>
-      <c r="H347" t="inlineStr">
-        <is>
-          <t>2021-07-10 18:23:35</t>
-        </is>
+      <c r="H347" s="1" t="n">
+        <v>44387.76637731482</v>
       </c>
       <c r="I347" t="n">
         <v>0</v>
@@ -25682,10 +25006,8 @@
           <t>4881207040</t>
         </is>
       </c>
-      <c r="H348" t="inlineStr">
-        <is>
-          <t>2021-07-10 18:23:22</t>
-        </is>
+      <c r="H348" s="1" t="n">
+        <v>44387.76622685185</v>
       </c>
       <c r="I348" t="n">
         <v>2</v>
@@ -25749,10 +25071,8 @@
           <t>4881162191</t>
         </is>
       </c>
-      <c r="H349" t="inlineStr">
-        <is>
-          <t>2021-07-10 18:23:09</t>
-        </is>
+      <c r="H349" s="1" t="n">
+        <v>44387.76607638889</v>
       </c>
       <c r="I349" t="n">
         <v>0</v>
@@ -25820,10 +25140,8 @@
           <t>4881202093</t>
         </is>
       </c>
-      <c r="H350" t="inlineStr">
-        <is>
-          <t>2021-07-10 18:23:07</t>
-        </is>
+      <c r="H350" s="1" t="n">
+        <v>44387.76605324074</v>
       </c>
       <c r="I350" t="n">
         <v>0</v>
@@ -25895,10 +25213,8 @@
           <t>4881201778</t>
         </is>
       </c>
-      <c r="H351" t="inlineStr">
-        <is>
-          <t>2021-07-10 18:22:58</t>
-        </is>
+      <c r="H351" s="1" t="n">
+        <v>44387.76594907408</v>
       </c>
       <c r="I351" t="n">
         <v>3</v>
@@ -25958,10 +25274,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H352" t="inlineStr">
-        <is>
-          <t>2021-07-10 18:22:46</t>
-        </is>
+      <c r="H352" s="1" t="n">
+        <v>44387.76581018518</v>
       </c>
       <c r="I352" t="n">
         <v>0</v>
@@ -26029,10 +25343,8 @@
           <t>4881201077</t>
         </is>
       </c>
-      <c r="H353" t="inlineStr">
-        <is>
-          <t>2021-07-10 18:22:39</t>
-        </is>
+      <c r="H353" s="1" t="n">
+        <v>44387.76572916667</v>
       </c>
       <c r="I353" t="n">
         <v>0</v>
@@ -26096,10 +25408,8 @@
           <t>4881200773</t>
         </is>
       </c>
-      <c r="H354" t="inlineStr">
-        <is>
-          <t>2021-07-10 18:22:31</t>
-        </is>
+      <c r="H354" s="1" t="n">
+        <v>44387.76563657408</v>
       </c>
       <c r="I354" t="n">
         <v>0</v>
@@ -26163,10 +25473,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H355" t="inlineStr">
-        <is>
-          <t>2021-07-10 18:22:11</t>
-        </is>
+      <c r="H355" s="1" t="n">
+        <v>44387.76540509259</v>
       </c>
       <c r="I355" t="n">
         <v>0</v>
@@ -26238,10 +25546,8 @@
           <t>4881171408</t>
         </is>
       </c>
-      <c r="H356" t="inlineStr">
-        <is>
-          <t>2021-07-10 18:22:07</t>
-        </is>
+      <c r="H356" s="1" t="n">
+        <v>44387.7653587963</v>
       </c>
       <c r="I356" t="n">
         <v>2</v>
@@ -26305,10 +25611,8 @@
           <t>4881192076</t>
         </is>
       </c>
-      <c r="H357" t="inlineStr">
-        <is>
-          <t>2021-07-10 18:21:53</t>
-        </is>
+      <c r="H357" s="1" t="n">
+        <v>44387.76519675926</v>
       </c>
       <c r="I357" t="n">
         <v>0</v>
@@ -26384,10 +25688,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H358" t="inlineStr">
-        <is>
-          <t>2021-07-10 18:21:43</t>
-        </is>
+      <c r="H358" s="1" t="n">
+        <v>44387.76508101852</v>
       </c>
       <c r="I358" t="n">
         <v>5</v>
@@ -26455,10 +25757,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H359" t="inlineStr">
-        <is>
-          <t>2021-07-10 18:21:23</t>
-        </is>
+      <c r="H359" s="1" t="n">
+        <v>44387.76484953704</v>
       </c>
       <c r="I359" t="n">
         <v>0</v>
@@ -26518,10 +25818,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H360" t="inlineStr">
-        <is>
-          <t>2021-07-10 18:21:21</t>
-        </is>
+      <c r="H360" s="1" t="n">
+        <v>44387.76482638889</v>
       </c>
       <c r="I360" t="n">
         <v>0</v>
@@ -26597,10 +25895,8 @@
           <t>4881192076</t>
         </is>
       </c>
-      <c r="H361" t="inlineStr">
-        <is>
-          <t>2021-07-10 18:21:18</t>
-        </is>
+      <c r="H361" s="1" t="n">
+        <v>44387.76479166667</v>
       </c>
       <c r="I361" t="n">
         <v>0</v>
@@ -26676,10 +25972,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H362" t="inlineStr">
-        <is>
-          <t>2021-07-10 18:21:11</t>
-        </is>
+      <c r="H362" s="1" t="n">
+        <v>44387.76471064815</v>
       </c>
       <c r="I362" t="n">
         <v>0</v>
@@ -26743,10 +26037,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H363" t="inlineStr">
-        <is>
-          <t>2021-07-10 18:21:07</t>
-        </is>
+      <c r="H363" s="1" t="n">
+        <v>44387.76466435185</v>
       </c>
       <c r="I363" t="n">
         <v>1</v>
@@ -26810,10 +26102,8 @@
           <t>4881079820</t>
         </is>
       </c>
-      <c r="H364" t="inlineStr">
-        <is>
-          <t>2021-07-10 18:20:57</t>
-        </is>
+      <c r="H364" s="1" t="n">
+        <v>44387.76454861111</v>
       </c>
       <c r="I364" t="n">
         <v>0</v>
@@ -26889,10 +26179,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H365" t="inlineStr">
-        <is>
-          <t>2021-07-10 18:20:53</t>
-        </is>
+      <c r="H365" s="1" t="n">
+        <v>44387.76450231481</v>
       </c>
       <c r="I365" t="n">
         <v>0</v>
@@ -26964,10 +26252,8 @@
           <t>4881190817</t>
         </is>
       </c>
-      <c r="H366" t="inlineStr">
-        <is>
-          <t>2021-07-10 18:20:47</t>
-        </is>
+      <c r="H366" s="1" t="n">
+        <v>44387.76443287037</v>
       </c>
       <c r="I366" t="n">
         <v>0</v>
@@ -27035,10 +26321,8 @@
           <t>4881160366</t>
         </is>
       </c>
-      <c r="H367" t="inlineStr">
-        <is>
-          <t>2021-07-10 18:20:47</t>
-        </is>
+      <c r="H367" s="1" t="n">
+        <v>44387.76443287037</v>
       </c>
       <c r="I367" t="n">
         <v>0</v>
@@ -27110,10 +26394,8 @@
           <t>4881190785</t>
         </is>
       </c>
-      <c r="H368" t="inlineStr">
-        <is>
-          <t>2021-07-10 18:20:46</t>
-        </is>
+      <c r="H368" s="1" t="n">
+        <v>44387.7644212963</v>
       </c>
       <c r="I368" t="n">
         <v>13</v>
@@ -27183,10 +26465,8 @@
           <t>4881183401</t>
         </is>
       </c>
-      <c r="H369" t="inlineStr">
-        <is>
-          <t>2021-07-10 18:20:38</t>
-        </is>
+      <c r="H369" s="1" t="n">
+        <v>44387.76432870371</v>
       </c>
       <c r="I369" t="n">
         <v>1</v>
@@ -27262,10 +26542,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H370" t="inlineStr">
-        <is>
-          <t>2021-07-10 18:20:08</t>
-        </is>
+      <c r="H370" s="1" t="n">
+        <v>44387.76398148148</v>
       </c>
       <c r="I370" t="n">
         <v>1</v>
@@ -27341,10 +26619,8 @@
           <t>4881091596</t>
         </is>
       </c>
-      <c r="H371" t="inlineStr">
-        <is>
-          <t>2021-07-10 18:20:07</t>
-        </is>
+      <c r="H371" s="1" t="n">
+        <v>44387.76396990741</v>
       </c>
       <c r="I371" t="n">
         <v>0</v>
@@ -27420,10 +26696,8 @@
           <t>4881081630</t>
         </is>
       </c>
-      <c r="H372" t="inlineStr">
-        <is>
-          <t>2021-07-10 18:19:54</t>
-        </is>
+      <c r="H372" s="1" t="n">
+        <v>44387.76381944444</v>
       </c>
       <c r="I372" t="n">
         <v>0</v>
@@ -27499,10 +26773,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H373" t="inlineStr">
-        <is>
-          <t>2021-07-10 18:19:36</t>
-        </is>
+      <c r="H373" s="1" t="n">
+        <v>44387.76361111111</v>
       </c>
       <c r="I373" t="n">
         <v>1</v>
@@ -27570,10 +26842,8 @@
           <t>4881134631</t>
         </is>
       </c>
-      <c r="H374" t="inlineStr">
-        <is>
-          <t>2021-07-10 18:19:23</t>
-        </is>
+      <c r="H374" s="1" t="n">
+        <v>44387.76346064815</v>
       </c>
       <c r="I374" t="n">
         <v>3</v>
@@ -27641,10 +26911,8 @@
           <t>4881169671</t>
         </is>
       </c>
-      <c r="H375" t="inlineStr">
-        <is>
-          <t>2021-07-10 18:18:54</t>
-        </is>
+      <c r="H375" s="1" t="n">
+        <v>44387.763125</v>
       </c>
       <c r="I375" t="n">
         <v>9</v>
@@ -27712,10 +26980,8 @@
           <t>4881169428</t>
         </is>
       </c>
-      <c r="H376" t="inlineStr">
-        <is>
-          <t>2021-07-10 18:18:46</t>
-        </is>
+      <c r="H376" s="1" t="n">
+        <v>44387.76303240741</v>
       </c>
       <c r="I376" t="n">
         <v>6</v>
@@ -27791,10 +27057,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H377" t="inlineStr">
-        <is>
-          <t>2021-07-10 18:18:44</t>
-        </is>
+      <c r="H377" s="1" t="n">
+        <v>44387.76300925926</v>
       </c>
       <c r="I377" t="n">
         <v>0</v>
@@ -27863,10 +27127,8 @@
           <t>4881117566</t>
         </is>
       </c>
-      <c r="H378" t="inlineStr">
-        <is>
-          <t>2021-07-10 18:18:29</t>
-        </is>
+      <c r="H378" s="1" t="n">
+        <v>44387.76283564815</v>
       </c>
       <c r="I378" t="n">
         <v>3</v>
@@ -27934,10 +27196,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H379" t="inlineStr">
-        <is>
-          <t>2021-07-10 18:18:18</t>
-        </is>
+      <c r="H379" s="1" t="n">
+        <v>44387.76270833334</v>
       </c>
       <c r="I379" t="n">
         <v>118</v>
@@ -28005,10 +27265,8 @@
           <t>4881117566</t>
         </is>
       </c>
-      <c r="H380" t="inlineStr">
-        <is>
-          <t>2021-07-10 18:18:18</t>
-        </is>
+      <c r="H380" s="1" t="n">
+        <v>44387.76270833334</v>
       </c>
       <c r="I380" t="n">
         <v>2</v>
@@ -28076,10 +27334,8 @@
           <t>4881171408</t>
         </is>
       </c>
-      <c r="H381" t="inlineStr">
-        <is>
-          <t>2021-07-10 18:18:17</t>
-        </is>
+      <c r="H381" s="1" t="n">
+        <v>44387.76269675926</v>
       </c>
       <c r="I381" t="n">
         <v>6</v>
@@ -28147,10 +27403,8 @@
           <t>4881171177</t>
         </is>
       </c>
-      <c r="H382" t="inlineStr">
-        <is>
-          <t>2021-07-10 18:18:10</t>
-        </is>
+      <c r="H382" s="1" t="n">
+        <v>44387.76261574074</v>
       </c>
       <c r="I382" t="n">
         <v>0</v>
@@ -28226,10 +27480,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H383" t="inlineStr">
-        <is>
-          <t>2021-07-10 18:18:06</t>
-        </is>
+      <c r="H383" s="1" t="n">
+        <v>44387.76256944444</v>
       </c>
       <c r="I383" t="n">
         <v>0</v>
@@ -28289,10 +27541,8 @@
           <t>4881170759</t>
         </is>
       </c>
-      <c r="H384" t="inlineStr">
-        <is>
-          <t>2021-07-10 18:17:59</t>
-        </is>
+      <c r="H384" s="1" t="n">
+        <v>44387.76248842593</v>
       </c>
       <c r="I384" t="n">
         <v>0</v>
@@ -28356,10 +27606,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H385" t="inlineStr">
-        <is>
-          <t>2021-07-10 18:17:52</t>
-        </is>
+      <c r="H385" s="1" t="n">
+        <v>44387.7624074074</v>
       </c>
       <c r="I385" t="n">
         <v>5</v>
@@ -28431,10 +27679,8 @@
           <t>4881163440</t>
         </is>
       </c>
-      <c r="H386" t="inlineStr">
-        <is>
-          <t>2021-07-10 18:17:45</t>
-        </is>
+      <c r="H386" s="1" t="n">
+        <v>44387.76232638889</v>
       </c>
       <c r="I386" t="n">
         <v>14</v>
@@ -28506,10 +27752,8 @@
           <t>4881170190</t>
         </is>
       </c>
-      <c r="H387" t="inlineStr">
-        <is>
-          <t>2021-07-10 18:17:44</t>
-        </is>
+      <c r="H387" s="1" t="n">
+        <v>44387.76231481481</v>
       </c>
       <c r="I387" t="n">
         <v>28</v>
@@ -28585,10 +27829,8 @@
           <t>4881145520</t>
         </is>
       </c>
-      <c r="H388" t="inlineStr">
-        <is>
-          <t>2021-07-10 18:17:41</t>
-        </is>
+      <c r="H388" s="1" t="n">
+        <v>44387.76228009259</v>
       </c>
       <c r="I388" t="n">
         <v>2</v>
@@ -28652,10 +27894,8 @@
           <t>4881162760</t>
         </is>
       </c>
-      <c r="H389" t="inlineStr">
-        <is>
-          <t>2021-07-10 18:17:29</t>
-        </is>
+      <c r="H389" s="1" t="n">
+        <v>44387.7621412037</v>
       </c>
       <c r="I389" t="n">
         <v>1</v>
@@ -28732,10 +27972,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H390" t="inlineStr">
-        <is>
-          <t>2021-07-10 18:17:19</t>
-        </is>
+      <c r="H390" s="1" t="n">
+        <v>44387.76202546297</v>
       </c>
       <c r="I390" t="n">
         <v>2</v>
@@ -28799,10 +28037,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H391" t="inlineStr">
-        <is>
-          <t>2021-07-10 18:17:17</t>
-        </is>
+      <c r="H391" s="1" t="n">
+        <v>44387.76200231481</v>
       </c>
       <c r="I391" t="n">
         <v>0</v>
@@ -28875,10 +28111,8 @@
           <t>4881162191</t>
         </is>
       </c>
-      <c r="H392" t="inlineStr">
-        <is>
-          <t>2021-07-10 18:17:15</t>
-        </is>
+      <c r="H392" s="1" t="n">
+        <v>44387.76197916667</v>
       </c>
       <c r="I392" t="n">
         <v>0</v>
@@ -28946,10 +28180,8 @@
           <t>4881143963</t>
         </is>
       </c>
-      <c r="H393" t="inlineStr">
-        <is>
-          <t>2021-07-10 18:16:58</t>
-        </is>
+      <c r="H393" s="1" t="n">
+        <v>44387.7617824074</v>
       </c>
       <c r="I393" t="n">
         <v>0</v>
@@ -29021,10 +28253,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H394" t="inlineStr">
-        <is>
-          <t>2021-07-10 18:16:44</t>
-        </is>
+      <c r="H394" s="1" t="n">
+        <v>44387.76162037037</v>
       </c>
       <c r="I394" t="n">
         <v>0</v>
@@ -29088,10 +28318,8 @@
           <t>4881102740</t>
         </is>
       </c>
-      <c r="H395" t="inlineStr">
-        <is>
-          <t>2021-07-10 18:16:38</t>
-        </is>
+      <c r="H395" s="1" t="n">
+        <v>44387.76155092593</v>
       </c>
       <c r="I395" t="n">
         <v>0</v>
@@ -29159,10 +28387,8 @@
           <t>4881160366</t>
         </is>
       </c>
-      <c r="H396" t="inlineStr">
-        <is>
-          <t>2021-07-10 18:16:31</t>
-        </is>
+      <c r="H396" s="1" t="n">
+        <v>44387.7614699074</v>
       </c>
       <c r="I396" t="n">
         <v>0</v>
@@ -29231,10 +28457,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H397" t="inlineStr">
-        <is>
-          <t>2021-07-10 18:16:26</t>
-        </is>
+      <c r="H397" s="1" t="n">
+        <v>44387.76141203703</v>
       </c>
       <c r="I397" t="n">
         <v>0</v>
@@ -29310,10 +28534,8 @@
           <t>4881140328</t>
         </is>
       </c>
-      <c r="H398" t="inlineStr">
-        <is>
-          <t>2021-07-10 18:16:22</t>
-        </is>
+      <c r="H398" s="1" t="n">
+        <v>44387.76136574074</v>
       </c>
       <c r="I398" t="n">
         <v>2</v>
@@ -29390,10 +28612,8 @@
           <t>4881149433</t>
         </is>
       </c>
-      <c r="H399" t="inlineStr">
-        <is>
-          <t>2021-07-10 18:16:07</t>
-        </is>
+      <c r="H399" s="1" t="n">
+        <v>44387.76119212963</v>
       </c>
       <c r="I399" t="n">
         <v>3</v>
@@ -29465,10 +28685,8 @@
           <t>4881153719</t>
         </is>
       </c>
-      <c r="H400" t="inlineStr">
-        <is>
-          <t>2021-07-10 18:16:06</t>
-        </is>
+      <c r="H400" s="1" t="n">
+        <v>44387.76118055556</v>
       </c>
       <c r="I400" t="n">
         <v>3</v>
@@ -29540,10 +28758,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H401" t="inlineStr">
-        <is>
-          <t>2021-07-10 18:15:57</t>
-        </is>
+      <c r="H401" s="1" t="n">
+        <v>44387.76107638889</v>
       </c>
       <c r="I401" t="n">
         <v>0</v>
@@ -29620,10 +28836,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H402" t="inlineStr">
-        <is>
-          <t>2021-07-10 18:15:56</t>
-        </is>
+      <c r="H402" s="1" t="n">
+        <v>44387.76106481482</v>
       </c>
       <c r="I402" t="n">
         <v>480</v>
@@ -29691,10 +28905,8 @@
           <t>4881117566</t>
         </is>
       </c>
-      <c r="H403" t="inlineStr">
-        <is>
-          <t>2021-07-10 18:15:47</t>
-        </is>
+      <c r="H403" s="1" t="n">
+        <v>44387.76096064815</v>
       </c>
       <c r="I403" t="n">
         <v>1</v>
@@ -29758,10 +28970,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H404" t="inlineStr">
-        <is>
-          <t>2021-07-10 18:15:42</t>
-        </is>
+      <c r="H404" s="1" t="n">
+        <v>44387.76090277778</v>
       </c>
       <c r="I404" t="n">
         <v>0</v>
@@ -29825,10 +29035,8 @@
           <t>4881134631</t>
         </is>
       </c>
-      <c r="H405" t="inlineStr">
-        <is>
-          <t>2021-07-10 18:15:35</t>
-        </is>
+      <c r="H405" s="1" t="n">
+        <v>44387.76082175926</v>
       </c>
       <c r="I405" t="n">
         <v>0</v>
@@ -29892,10 +29100,8 @@
           <t>4881117566</t>
         </is>
       </c>
-      <c r="H406" t="inlineStr">
-        <is>
-          <t>2021-07-10 18:15:34</t>
-        </is>
+      <c r="H406" s="1" t="n">
+        <v>44387.76081018519</v>
       </c>
       <c r="I406" t="n">
         <v>2</v>
@@ -29963,10 +29169,8 @@
           <t>4881117566</t>
         </is>
       </c>
-      <c r="H407" t="inlineStr">
-        <is>
-          <t>2021-07-10 18:15:29</t>
-        </is>
+      <c r="H407" s="1" t="n">
+        <v>44387.76075231482</v>
       </c>
       <c r="I407" t="n">
         <v>3</v>
@@ -30042,10 +29246,8 @@
           <t>4881147762</t>
         </is>
       </c>
-      <c r="H408" t="inlineStr">
-        <is>
-          <t>2021-07-10 18:15:24</t>
-        </is>
+      <c r="H408" s="1" t="n">
+        <v>44387.76069444444</v>
       </c>
       <c r="I408" t="n">
         <v>1</v>
@@ -30121,10 +29323,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H409" t="inlineStr">
-        <is>
-          <t>2021-07-10 18:15:11</t>
-        </is>
+      <c r="H409" s="1" t="n">
+        <v>44387.76054398148</v>
       </c>
       <c r="I409" t="n">
         <v>0</v>
@@ -30192,10 +29392,8 @@
           <t>4881092585</t>
         </is>
       </c>
-      <c r="H410" t="inlineStr">
-        <is>
-          <t>2021-07-10 18:15:00</t>
-        </is>
+      <c r="H410" s="1" t="n">
+        <v>44387.76041666666</v>
       </c>
       <c r="I410" t="n">
         <v>4</v>
@@ -30267,10 +29465,8 @@
           <t>4881143963</t>
         </is>
       </c>
-      <c r="H411" t="inlineStr">
-        <is>
-          <t>2021-07-10 18:14:57</t>
-        </is>
+      <c r="H411" s="1" t="n">
+        <v>44387.76038194444</v>
       </c>
       <c r="I411" t="n">
         <v>0</v>
@@ -30334,10 +29530,8 @@
           <t>4881117566</t>
         </is>
       </c>
-      <c r="H412" t="inlineStr">
-        <is>
-          <t>2021-07-10 18:14:56</t>
-        </is>
+      <c r="H412" s="1" t="n">
+        <v>44387.76037037037</v>
       </c>
       <c r="I412" t="n">
         <v>0</v>
@@ -30401,10 +29595,8 @@
           <t>4881117566</t>
         </is>
       </c>
-      <c r="H413" t="inlineStr">
-        <is>
-          <t>2021-07-10 18:14:53</t>
-        </is>
+      <c r="H413" s="1" t="n">
+        <v>44387.76033564815</v>
       </c>
       <c r="I413" t="n">
         <v>1</v>
@@ -30480,10 +29672,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H414" t="inlineStr">
-        <is>
-          <t>2021-07-10 18:14:49</t>
-        </is>
+      <c r="H414" s="1" t="n">
+        <v>44387.76028935185</v>
       </c>
       <c r="I414" t="n">
         <v>0</v>
@@ -30551,10 +29741,8 @@
           <t>4881117566</t>
         </is>
       </c>
-      <c r="H415" t="inlineStr">
-        <is>
-          <t>2021-07-10 18:14:37</t>
-        </is>
+      <c r="H415" s="1" t="n">
+        <v>44387.76015046296</v>
       </c>
       <c r="I415" t="n">
         <v>0</v>
@@ -30618,10 +29806,8 @@
           <t>4881145520</t>
         </is>
       </c>
-      <c r="H416" t="inlineStr">
-        <is>
-          <t>2021-07-10 18:14:29</t>
-        </is>
+      <c r="H416" s="1" t="n">
+        <v>44387.76005787037</v>
       </c>
       <c r="I416" t="n">
         <v>0</v>
@@ -30681,10 +29867,8 @@
           <t>4881117566</t>
         </is>
       </c>
-      <c r="H417" t="inlineStr">
-        <is>
-          <t>2021-07-10 18:14:26</t>
-        </is>
+      <c r="H417" s="1" t="n">
+        <v>44387.76002314815</v>
       </c>
       <c r="I417" t="n">
         <v>2</v>
@@ -30760,10 +29944,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H418" t="inlineStr">
-        <is>
-          <t>2021-07-10 18:14:21</t>
-        </is>
+      <c r="H418" s="1" t="n">
+        <v>44387.75996527778</v>
       </c>
       <c r="I418" t="n">
         <v>0</v>
@@ -30835,10 +30017,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H419" t="inlineStr">
-        <is>
-          <t>2021-07-10 18:14:18</t>
-        </is>
+      <c r="H419" s="1" t="n">
+        <v>44387.75993055556</v>
       </c>
       <c r="I419" t="n">
         <v>0</v>
@@ -30906,10 +30086,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H420" t="inlineStr">
-        <is>
-          <t>2021-07-10 18:14:16</t>
-        </is>
+      <c r="H420" s="1" t="n">
+        <v>44387.75990740741</v>
       </c>
       <c r="I420" t="n">
         <v>2</v>
@@ -30977,10 +30155,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H421" t="inlineStr">
-        <is>
-          <t>2021-07-10 18:14:14</t>
-        </is>
+      <c r="H421" s="1" t="n">
+        <v>44387.75988425926</v>
       </c>
       <c r="I421" t="n">
         <v>0</v>
@@ -31048,10 +30224,8 @@
           <t>4881134631</t>
         </is>
       </c>
-      <c r="H422" t="inlineStr">
-        <is>
-          <t>2021-07-10 18:14:12</t>
-        </is>
+      <c r="H422" s="1" t="n">
+        <v>44387.75986111111</v>
       </c>
       <c r="I422" t="n">
         <v>0</v>
@@ -31129,10 +30303,8 @@
           <t>4881082691</t>
         </is>
       </c>
-      <c r="H423" t="inlineStr">
-        <is>
-          <t>2021-07-10 18:14:10</t>
-        </is>
+      <c r="H423" s="1" t="n">
+        <v>44387.75983796296</v>
       </c>
       <c r="I423" t="n">
         <v>0</v>
@@ -31196,10 +30368,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H424" t="inlineStr">
-        <is>
-          <t>2021-07-10 18:14:05</t>
-        </is>
+      <c r="H424" s="1" t="n">
+        <v>44387.75978009259</v>
       </c>
       <c r="I424" t="n">
         <v>0</v>
@@ -31271,10 +30441,8 @@
           <t>4881141443</t>
         </is>
       </c>
-      <c r="H425" t="inlineStr">
-        <is>
-          <t>2021-07-10 18:13:48</t>
-        </is>
+      <c r="H425" s="1" t="n">
+        <v>44387.75958333333</v>
       </c>
       <c r="I425" t="n">
         <v>1</v>
@@ -31350,10 +30518,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H426" t="inlineStr">
-        <is>
-          <t>2021-07-10 18:13:45</t>
-        </is>
+      <c r="H426" s="1" t="n">
+        <v>44387.75954861111</v>
       </c>
       <c r="I426" t="n">
         <v>3</v>
@@ -31423,10 +30589,8 @@
           <t>4881075844</t>
         </is>
       </c>
-      <c r="H427" t="inlineStr">
-        <is>
-          <t>2021-07-10 18:13:34</t>
-        </is>
+      <c r="H427" s="1" t="n">
+        <v>44387.75942129629</v>
       </c>
       <c r="I427" t="n">
         <v>0</v>
@@ -31498,10 +30662,8 @@
           <t>4881117566</t>
         </is>
       </c>
-      <c r="H428" t="inlineStr">
-        <is>
-          <t>2021-07-10 18:13:33</t>
-        </is>
+      <c r="H428" s="1" t="n">
+        <v>44387.75940972222</v>
       </c>
       <c r="I428" t="n">
         <v>4</v>
@@ -31569,10 +30731,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H429" t="inlineStr">
-        <is>
-          <t>2021-07-10 18:13:28</t>
-        </is>
+      <c r="H429" s="1" t="n">
+        <v>44387.75935185186</v>
       </c>
       <c r="I429" t="n">
         <v>0</v>
@@ -31644,10 +30804,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H430" t="inlineStr">
-        <is>
-          <t>2021-07-10 18:13:21</t>
-        </is>
+      <c r="H430" s="1" t="n">
+        <v>44387.75927083333</v>
       </c>
       <c r="I430" t="n">
         <v>0</v>
@@ -31723,10 +30881,8 @@
           <t>4881137892</t>
         </is>
       </c>
-      <c r="H431" t="inlineStr">
-        <is>
-          <t>2021-07-10 18:13:21</t>
-        </is>
+      <c r="H431" s="1" t="n">
+        <v>44387.75927083333</v>
       </c>
       <c r="I431" t="n">
         <v>8</v>
@@ -31794,10 +30950,8 @@
           <t>4881092585</t>
         </is>
       </c>
-      <c r="H432" t="inlineStr">
-        <is>
-          <t>2021-07-10 18:13:20</t>
-        </is>
+      <c r="H432" s="1" t="n">
+        <v>44387.75925925926</v>
       </c>
       <c r="I432" t="n">
         <v>5</v>
@@ -31865,10 +31019,8 @@
           <t>4881140328</t>
         </is>
       </c>
-      <c r="H433" t="inlineStr">
-        <is>
-          <t>2021-07-10 18:13:17</t>
-        </is>
+      <c r="H433" s="1" t="n">
+        <v>44387.75922453704</v>
       </c>
       <c r="I433" t="n">
         <v>8</v>
@@ -31945,10 +31097,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H434" t="inlineStr">
-        <is>
-          <t>2021-07-10 18:13:15</t>
-        </is>
+      <c r="H434" s="1" t="n">
+        <v>44387.75920138889</v>
       </c>
       <c r="I434" t="n">
         <v>0</v>
@@ -32012,10 +31162,8 @@
           <t>4881140028</t>
         </is>
       </c>
-      <c r="H435" t="inlineStr">
-        <is>
-          <t>2021-07-10 18:13:09</t>
-        </is>
+      <c r="H435" s="1" t="n">
+        <v>44387.75913194445</v>
       </c>
       <c r="I435" t="n">
         <v>0</v>
@@ -32091,10 +31239,8 @@
           <t>4881117566</t>
         </is>
       </c>
-      <c r="H436" t="inlineStr">
-        <is>
-          <t>2021-07-10 18:13:08</t>
-        </is>
+      <c r="H436" s="1" t="n">
+        <v>44387.75912037037</v>
       </c>
       <c r="I436" t="n">
         <v>1</v>
@@ -32170,10 +31316,8 @@
           <t>4881137329</t>
         </is>
       </c>
-      <c r="H437" t="inlineStr">
-        <is>
-          <t>2021-07-10 18:13:07</t>
-        </is>
+      <c r="H437" s="1" t="n">
+        <v>44387.75910879629</v>
       </c>
       <c r="I437" t="n">
         <v>0</v>
@@ -32245,10 +31389,8 @@
           <t>4881117566</t>
         </is>
       </c>
-      <c r="H438" t="inlineStr">
-        <is>
-          <t>2021-07-10 18:13:04</t>
-        </is>
+      <c r="H438" s="1" t="n">
+        <v>44387.75907407407</v>
       </c>
       <c r="I438" t="n">
         <v>0</v>
@@ -32312,10 +31454,8 @@
           <t>4881137004</t>
         </is>
       </c>
-      <c r="H439" t="inlineStr">
-        <is>
-          <t>2021-07-10 18:13:00</t>
-        </is>
+      <c r="H439" s="1" t="n">
+        <v>44387.75902777778</v>
       </c>
       <c r="I439" t="n">
         <v>3</v>
@@ -32391,10 +31531,8 @@
           <t>4881117566</t>
         </is>
       </c>
-      <c r="H440" t="inlineStr">
-        <is>
-          <t>2021-07-10 18:12:57</t>
-        </is>
+      <c r="H440" s="1" t="n">
+        <v>44387.75899305556</v>
       </c>
       <c r="I440" t="n">
         <v>1</v>
@@ -32470,10 +31608,8 @@
           <t>4881058357</t>
         </is>
       </c>
-      <c r="H441" t="inlineStr">
-        <is>
-          <t>2021-07-10 18:12:41</t>
-        </is>
+      <c r="H441" s="1" t="n">
+        <v>44387.75880787037</v>
       </c>
       <c r="I441" t="n">
         <v>0</v>
@@ -32537,10 +31673,8 @@
           <t>4881117566</t>
         </is>
       </c>
-      <c r="H442" t="inlineStr">
-        <is>
-          <t>2021-07-10 18:12:30</t>
-        </is>
+      <c r="H442" s="1" t="n">
+        <v>44387.75868055555</v>
       </c>
       <c r="I442" t="n">
         <v>6</v>
@@ -32612,10 +31746,8 @@
           <t>4881128136</t>
         </is>
       </c>
-      <c r="H443" t="inlineStr">
-        <is>
-          <t>2021-07-10 18:12:20</t>
-        </is>
+      <c r="H443" s="1" t="n">
+        <v>44387.75856481482</v>
       </c>
       <c r="I443" t="n">
         <v>14</v>
@@ -32679,10 +31811,8 @@
           <t>4881124959</t>
         </is>
       </c>
-      <c r="H444" t="inlineStr">
-        <is>
-          <t>2021-07-10 18:12:08</t>
-        </is>
+      <c r="H444" s="1" t="n">
+        <v>44387.75842592592</v>
       </c>
       <c r="I444" t="n">
         <v>3</v>
@@ -32746,10 +31876,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H445" t="inlineStr">
-        <is>
-          <t>2021-07-10 18:12:04</t>
-        </is>
+      <c r="H445" s="1" t="n">
+        <v>44387.75837962963</v>
       </c>
       <c r="I445" t="n">
         <v>1</v>
@@ -32817,10 +31945,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H446" t="inlineStr">
-        <is>
-          <t>2021-07-10 18:11:48</t>
-        </is>
+      <c r="H446" s="1" t="n">
+        <v>44387.75819444445</v>
       </c>
       <c r="I446" t="n">
         <v>0</v>
@@ -32890,10 +32016,8 @@
           <t>4881123586</t>
         </is>
       </c>
-      <c r="H447" t="inlineStr">
-        <is>
-          <t>2021-07-10 18:11:35</t>
-        </is>
+      <c r="H447" s="1" t="n">
+        <v>44387.75804398148</v>
       </c>
       <c r="I447" t="n">
         <v>2</v>
@@ -32961,10 +32085,8 @@
           <t>4881090073</t>
         </is>
       </c>
-      <c r="H448" t="inlineStr">
-        <is>
-          <t>2021-07-10 18:11:35</t>
-        </is>
+      <c r="H448" s="1" t="n">
+        <v>44387.75804398148</v>
       </c>
       <c r="I448" t="n">
         <v>0</v>
@@ -33028,10 +32150,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H449" t="inlineStr">
-        <is>
-          <t>2021-07-10 18:11:24</t>
-        </is>
+      <c r="H449" s="1" t="n">
+        <v>44387.75791666667</v>
       </c>
       <c r="I449" t="n">
         <v>0</v>
@@ -33099,10 +32219,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H450" t="inlineStr">
-        <is>
-          <t>2021-07-10 18:11:19</t>
-        </is>
+      <c r="H450" s="1" t="n">
+        <v>44387.7578587963</v>
       </c>
       <c r="I450" t="n">
         <v>12</v>
@@ -33170,10 +32288,8 @@
           <t>4881113616</t>
         </is>
       </c>
-      <c r="H451" t="inlineStr">
-        <is>
-          <t>2021-07-10 18:11:12</t>
-        </is>
+      <c r="H451" s="1" t="n">
+        <v>44387.75777777778</v>
       </c>
       <c r="I451" t="n">
         <v>0</v>
@@ -33245,10 +32361,8 @@
           <t>4881117578</t>
         </is>
       </c>
-      <c r="H452" t="inlineStr">
-        <is>
-          <t>2021-07-10 18:10:56</t>
-        </is>
+      <c r="H452" s="1" t="n">
+        <v>44387.75759259259</v>
       </c>
       <c r="I452" t="n">
         <v>1</v>
@@ -33312,10 +32426,8 @@
           <t>4881113616</t>
         </is>
       </c>
-      <c r="H453" t="inlineStr">
-        <is>
-          <t>2021-07-10 18:10:20</t>
-        </is>
+      <c r="H453" s="1" t="n">
+        <v>44387.75717592592</v>
       </c>
       <c r="I453" t="n">
         <v>0</v>
@@ -33379,10 +32491,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H454" t="inlineStr">
-        <is>
-          <t>2021-07-10 18:10:05</t>
-        </is>
+      <c r="H454" s="1" t="n">
+        <v>44387.75700231481</v>
       </c>
       <c r="I454" t="n">
         <v>1</v>
@@ -33458,10 +32568,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H455" t="inlineStr">
-        <is>
-          <t>2021-07-10 18:09:41</t>
-        </is>
+      <c r="H455" s="1" t="n">
+        <v>44387.75672453704</v>
       </c>
       <c r="I455" t="n">
         <v>3</v>
@@ -33537,10 +32645,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H456" t="inlineStr">
-        <is>
-          <t>2021-07-10 18:09:34</t>
-        </is>
+      <c r="H456" s="1" t="n">
+        <v>44387.75664351852</v>
       </c>
       <c r="I456" t="n">
         <v>7</v>
@@ -33604,10 +32710,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H457" t="inlineStr">
-        <is>
-          <t>2021-07-10 18:09:34</t>
-        </is>
+      <c r="H457" s="1" t="n">
+        <v>44387.75664351852</v>
       </c>
       <c r="I457" t="n">
         <v>0</v>
@@ -33671,10 +32775,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H458" t="inlineStr">
-        <is>
-          <t>2021-07-10 18:09:17</t>
-        </is>
+      <c r="H458" s="1" t="n">
+        <v>44387.75644675926</v>
       </c>
       <c r="I458" t="n">
         <v>5</v>
@@ -33746,10 +32848,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H459" t="inlineStr">
-        <is>
-          <t>2021-07-10 18:09:09</t>
-        </is>
+      <c r="H459" s="1" t="n">
+        <v>44387.75635416667</v>
       </c>
       <c r="I459" t="n">
         <v>0</v>
@@ -33809,10 +32909,8 @@
           <t>4881107572</t>
         </is>
       </c>
-      <c r="H460" t="inlineStr">
-        <is>
-          <t>2021-07-10 18:09:06</t>
-        </is>
+      <c r="H460" s="1" t="n">
+        <v>44387.75631944444</v>
       </c>
       <c r="I460" t="n">
         <v>0</v>
@@ -33880,10 +32978,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H461" t="inlineStr">
-        <is>
-          <t>2021-07-10 18:08:58</t>
-        </is>
+      <c r="H461" s="1" t="n">
+        <v>44387.75622685185</v>
       </c>
       <c r="I461" t="n">
         <v>3</v>
@@ -33955,10 +33051,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H462" t="inlineStr">
-        <is>
-          <t>2021-07-10 18:08:57</t>
-        </is>
+      <c r="H462" s="1" t="n">
+        <v>44387.75621527778</v>
       </c>
       <c r="I462" t="n">
         <v>0</v>
@@ -34026,10 +33120,8 @@
           <t>4881079269</t>
         </is>
       </c>
-      <c r="H463" t="inlineStr">
-        <is>
-          <t>2021-07-10 18:08:53</t>
-        </is>
+      <c r="H463" s="1" t="n">
+        <v>44387.75616898148</v>
       </c>
       <c r="I463" t="n">
         <v>0</v>
@@ -34097,10 +33189,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H464" t="inlineStr">
-        <is>
-          <t>2021-07-10 18:08:52</t>
-        </is>
+      <c r="H464" s="1" t="n">
+        <v>44387.75615740741</v>
       </c>
       <c r="I464" t="n">
         <v>1</v>
@@ -34168,10 +33258,8 @@
           <t>4881102740</t>
         </is>
       </c>
-      <c r="H465" t="inlineStr">
-        <is>
-          <t>2021-07-10 18:08:42</t>
-        </is>
+      <c r="H465" s="1" t="n">
+        <v>44387.75604166667</v>
       </c>
       <c r="I465" t="n">
         <v>6</v>
@@ -34239,10 +33327,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H466" t="inlineStr">
-        <is>
-          <t>2021-07-10 18:08:39</t>
-        </is>
+      <c r="H466" s="1" t="n">
+        <v>44387.75600694444</v>
       </c>
       <c r="I466" t="n">
         <v>0</v>
@@ -34318,10 +33404,8 @@
           <t>4881106444</t>
         </is>
       </c>
-      <c r="H467" t="inlineStr">
-        <is>
-          <t>2021-07-10 18:08:38</t>
-        </is>
+      <c r="H467" s="1" t="n">
+        <v>44387.75599537037</v>
       </c>
       <c r="I467" t="n">
         <v>1</v>
@@ -34389,10 +33473,8 @@
           <t>4881106230</t>
         </is>
       </c>
-      <c r="H468" t="inlineStr">
-        <is>
-          <t>2021-07-10 18:08:33</t>
-        </is>
+      <c r="H468" s="1" t="n">
+        <v>44387.7559375</v>
       </c>
       <c r="I468" t="n">
         <v>0</v>
@@ -34460,10 +33542,8 @@
           <t>4881097316</t>
         </is>
       </c>
-      <c r="H469" t="inlineStr">
-        <is>
-          <t>2021-07-10 18:08:20</t>
-        </is>
+      <c r="H469" s="1" t="n">
+        <v>44387.75578703704</v>
       </c>
       <c r="I469" t="n">
         <v>1</v>
@@ -34531,10 +33611,8 @@
           <t>4881099053</t>
         </is>
       </c>
-      <c r="H470" t="inlineStr">
-        <is>
-          <t>2021-07-10 18:08:19</t>
-        </is>
+      <c r="H470" s="1" t="n">
+        <v>44387.75577546296</v>
       </c>
       <c r="I470" t="n">
         <v>1</v>
@@ -34602,10 +33680,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H471" t="inlineStr">
-        <is>
-          <t>2021-07-10 18:08:17</t>
-        </is>
+      <c r="H471" s="1" t="n">
+        <v>44387.75575231481</v>
       </c>
       <c r="I471" t="n">
         <v>0</v>
@@ -34677,10 +33753,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H472" t="inlineStr">
-        <is>
-          <t>2021-07-10 18:08:16</t>
-        </is>
+      <c r="H472" s="1" t="n">
+        <v>44387.75574074074</v>
       </c>
       <c r="I472" t="n">
         <v>3</v>
@@ -34744,10 +33818,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H473" t="inlineStr">
-        <is>
-          <t>2021-07-10 18:08:11</t>
-        </is>
+      <c r="H473" s="1" t="n">
+        <v>44387.75568287037</v>
       </c>
       <c r="I473" t="n">
         <v>0</v>
@@ -34819,10 +33891,8 @@
           <t>4881101442</t>
         </is>
       </c>
-      <c r="H474" t="inlineStr">
-        <is>
-          <t>2021-07-10 18:08:07</t>
-        </is>
+      <c r="H474" s="1" t="n">
+        <v>44387.75563657407</v>
       </c>
       <c r="I474" t="n">
         <v>0</v>
@@ -34890,10 +33960,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H475" t="inlineStr">
-        <is>
-          <t>2021-07-10 18:08:03</t>
-        </is>
+      <c r="H475" s="1" t="n">
+        <v>44387.75559027777</v>
       </c>
       <c r="I475" t="n">
         <v>16</v>
@@ -34957,10 +34025,8 @@
           <t>4881100944</t>
         </is>
       </c>
-      <c r="H476" t="inlineStr">
-        <is>
-          <t>2021-07-10 18:07:53</t>
-        </is>
+      <c r="H476" s="1" t="n">
+        <v>44387.75547453704</v>
       </c>
       <c r="I476" t="n">
         <v>0</v>
@@ -35036,10 +34102,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H477" t="inlineStr">
-        <is>
-          <t>2021-07-10 18:07:41</t>
-        </is>
+      <c r="H477" s="1" t="n">
+        <v>44387.75533564815</v>
       </c>
       <c r="I477" t="n">
         <v>0</v>
@@ -35111,10 +34175,8 @@
           <t>4881097316</t>
         </is>
       </c>
-      <c r="H478" t="inlineStr">
-        <is>
-          <t>2021-07-10 18:07:34</t>
-        </is>
+      <c r="H478" s="1" t="n">
+        <v>44387.75525462963</v>
       </c>
       <c r="I478" t="n">
         <v>5</v>
@@ -35190,10 +34252,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H479" t="inlineStr">
-        <is>
-          <t>2021-07-10 18:07:07</t>
-        </is>
+      <c r="H479" s="1" t="n">
+        <v>44387.75494212963</v>
       </c>
       <c r="I479" t="n">
         <v>0</v>
@@ -35265,10 +34325,8 @@
           <t>4881079269</t>
         </is>
       </c>
-      <c r="H480" t="inlineStr">
-        <is>
-          <t>2021-07-10 18:07:07</t>
-        </is>
+      <c r="H480" s="1" t="n">
+        <v>44387.75494212963</v>
       </c>
       <c r="I480" t="n">
         <v>4</v>
@@ -35340,10 +34398,8 @@
           <t>4881092585</t>
         </is>
       </c>
-      <c r="H481" t="inlineStr">
-        <is>
-          <t>2021-07-10 18:07:03</t>
-        </is>
+      <c r="H481" s="1" t="n">
+        <v>44387.75489583334</v>
       </c>
       <c r="I481" t="n">
         <v>8</v>
@@ -35415,10 +34471,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H482" t="inlineStr">
-        <is>
-          <t>2021-07-10 18:06:51</t>
-        </is>
+      <c r="H482" s="1" t="n">
+        <v>44387.75475694444</v>
       </c>
       <c r="I482" t="n">
         <v>0</v>
@@ -35486,10 +34540,8 @@
           <t>4881088439</t>
         </is>
       </c>
-      <c r="H483" t="inlineStr">
-        <is>
-          <t>2021-07-10 18:06:43</t>
-        </is>
+      <c r="H483" s="1" t="n">
+        <v>44387.75466435185</v>
       </c>
       <c r="I483" t="n">
         <v>6</v>
@@ -35565,10 +34617,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H484" t="inlineStr">
-        <is>
-          <t>2021-07-10 18:06:39</t>
-        </is>
+      <c r="H484" s="1" t="n">
+        <v>44387.75461805556</v>
       </c>
       <c r="I484" t="n">
         <v>171</v>
@@ -35632,10 +34682,8 @@
           <t>4881091596</t>
         </is>
       </c>
-      <c r="H485" t="inlineStr">
-        <is>
-          <t>2021-07-10 18:06:39</t>
-        </is>
+      <c r="H485" s="1" t="n">
+        <v>44387.75461805556</v>
       </c>
       <c r="I485" t="n">
         <v>0</v>
@@ -35703,10 +34751,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H486" t="inlineStr">
-        <is>
-          <t>2021-07-10 18:06:38</t>
-        </is>
+      <c r="H486" s="1" t="n">
+        <v>44387.75460648148</v>
       </c>
       <c r="I486" t="n">
         <v>92</v>
@@ -35784,10 +34830,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H487" t="inlineStr">
-        <is>
-          <t>2021-07-10 18:06:36</t>
-        </is>
+      <c r="H487" s="1" t="n">
+        <v>44387.75458333334</v>
       </c>
       <c r="I487" t="n">
         <v>0</v>
@@ -35859,10 +34903,8 @@
           <t>4881075844</t>
         </is>
       </c>
-      <c r="H488" t="inlineStr">
-        <is>
-          <t>2021-07-10 18:06:24</t>
-        </is>
+      <c r="H488" s="1" t="n">
+        <v>44387.75444444444</v>
       </c>
       <c r="I488" t="n">
         <v>16</v>
@@ -35930,10 +34972,8 @@
           <t>4881084551</t>
         </is>
       </c>
-      <c r="H489" t="inlineStr">
-        <is>
-          <t>2021-07-10 18:06:21</t>
-        </is>
+      <c r="H489" s="1" t="n">
+        <v>44387.75440972222</v>
       </c>
       <c r="I489" t="n">
         <v>0</v>
@@ -36001,10 +35041,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H490" t="inlineStr">
-        <is>
-          <t>2021-07-10 18:06:19</t>
-        </is>
+      <c r="H490" s="1" t="n">
+        <v>44387.75438657407</v>
       </c>
       <c r="I490" t="n">
         <v>1</v>
@@ -36076,10 +35114,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H491" t="inlineStr">
-        <is>
-          <t>2021-07-10 18:06:14</t>
-        </is>
+      <c r="H491" s="1" t="n">
+        <v>44387.7543287037</v>
       </c>
       <c r="I491" t="n">
         <v>4</v>
@@ -36151,10 +35187,8 @@
           <t>4881087355</t>
         </is>
       </c>
-      <c r="H492" t="inlineStr">
-        <is>
-          <t>2021-07-10 18:06:14</t>
-        </is>
+      <c r="H492" s="1" t="n">
+        <v>44387.7543287037</v>
       </c>
       <c r="I492" t="n">
         <v>10</v>
@@ -36226,10 +35260,8 @@
           <t>4881058357</t>
         </is>
       </c>
-      <c r="H493" t="inlineStr">
-        <is>
-          <t>2021-07-10 18:06:12</t>
-        </is>
+      <c r="H493" s="1" t="n">
+        <v>44387.75430555556</v>
       </c>
       <c r="I493" t="n">
         <v>0</v>
@@ -36305,10 +35337,8 @@
           <t>4881090073</t>
         </is>
       </c>
-      <c r="H494" t="inlineStr">
-        <is>
-          <t>2021-07-10 18:06:01</t>
-        </is>
+      <c r="H494" s="1" t="n">
+        <v>44387.75417824074</v>
       </c>
       <c r="I494" t="n">
         <v>2</v>
@@ -36384,10 +35414,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H495" t="inlineStr">
-        <is>
-          <t>2021-07-10 18:06:00</t>
-        </is>
+      <c r="H495" s="1" t="n">
+        <v>44387.75416666667</v>
       </c>
       <c r="I495" t="n">
         <v>0</v>
@@ -36451,10 +35479,8 @@
           <t>4881079820</t>
         </is>
       </c>
-      <c r="H496" t="inlineStr">
-        <is>
-          <t>2021-07-10 18:05:55</t>
-        </is>
+      <c r="H496" s="1" t="n">
+        <v>44387.7541087963</v>
       </c>
       <c r="I496" t="n">
         <v>1</v>
@@ -36530,10 +35556,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H497" t="inlineStr">
-        <is>
-          <t>2021-07-10 18:05:46</t>
-        </is>
+      <c r="H497" s="1" t="n">
+        <v>44387.75400462963</v>
       </c>
       <c r="I497" t="n">
         <v>0</v>
@@ -36601,10 +35625,8 @@
           <t>4881079269</t>
         </is>
       </c>
-      <c r="H498" t="inlineStr">
-        <is>
-          <t>2021-07-10 18:05:42</t>
-        </is>
+      <c r="H498" s="1" t="n">
+        <v>44387.75395833333</v>
       </c>
       <c r="I498" t="n">
         <v>0</v>
@@ -36680,10 +35702,8 @@
           <t>4881085978</t>
         </is>
       </c>
-      <c r="H499" t="inlineStr">
-        <is>
-          <t>2021-07-10 18:05:35</t>
-        </is>
+      <c r="H499" s="1" t="n">
+        <v>44387.75387731481</v>
       </c>
       <c r="I499" t="n">
         <v>0</v>
@@ -36755,10 +35775,8 @@
           <t>4881082691</t>
         </is>
       </c>
-      <c r="H500" t="inlineStr">
-        <is>
-          <t>2021-07-10 18:05:31</t>
-        </is>
+      <c r="H500" s="1" t="n">
+        <v>44387.75383101852</v>
       </c>
       <c r="I500" t="n">
         <v>5</v>
@@ -36834,10 +35852,8 @@
           <t>4881082395</t>
         </is>
       </c>
-      <c r="H501" t="inlineStr">
-        <is>
-          <t>2021-07-10 18:05:23</t>
-        </is>
+      <c r="H501" s="1" t="n">
+        <v>44387.75373842593</v>
       </c>
       <c r="I501" t="n">
         <v>0</v>
@@ -36913,10 +35929,8 @@
           <t>4881082141</t>
         </is>
       </c>
-      <c r="H502" t="inlineStr">
-        <is>
-          <t>2021-07-10 18:05:16</t>
-        </is>
+      <c r="H502" s="1" t="n">
+        <v>44387.7536574074</v>
       </c>
       <c r="I502" t="n">
         <v>3</v>
@@ -36988,10 +36002,8 @@
           <t>4881082004</t>
         </is>
       </c>
-      <c r="H503" t="inlineStr">
-        <is>
-          <t>2021-07-10 18:05:13</t>
-        </is>
+      <c r="H503" s="1" t="n">
+        <v>44387.75362268519</v>
       </c>
       <c r="I503" t="n">
         <v>10</v>
@@ -37064,10 +36076,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H504" t="inlineStr">
-        <is>
-          <t>2021-07-10 18:05:04</t>
-        </is>
+      <c r="H504" s="1" t="n">
+        <v>44387.75351851852</v>
       </c>
       <c r="I504" t="n">
         <v>0</v>
@@ -37135,10 +36145,8 @@
           <t>4881081663</t>
         </is>
       </c>
-      <c r="H505" t="inlineStr">
-        <is>
-          <t>2021-07-10 18:05:03</t>
-        </is>
+      <c r="H505" s="1" t="n">
+        <v>44387.75350694444</v>
       </c>
       <c r="I505" t="n">
         <v>2</v>
@@ -37206,10 +36214,8 @@
           <t>4881081630</t>
         </is>
       </c>
-      <c r="H506" t="inlineStr">
-        <is>
-          <t>2021-07-10 18:05:02</t>
-        </is>
+      <c r="H506" s="1" t="n">
+        <v>44387.75349537037</v>
       </c>
       <c r="I506" t="n">
         <v>2</v>
@@ -37281,10 +36287,8 @@
           <t>4881081575</t>
         </is>
       </c>
-      <c r="H507" t="inlineStr">
-        <is>
-          <t>2021-07-10 18:05:00</t>
-        </is>
+      <c r="H507" s="1" t="n">
+        <v>44387.75347222222</v>
       </c>
       <c r="I507" t="n">
         <v>16</v>
@@ -37352,10 +36356,8 @@
           <t>4881077532</t>
         </is>
       </c>
-      <c r="H508" t="inlineStr">
-        <is>
-          <t>2021-07-10 18:04:59</t>
-        </is>
+      <c r="H508" s="1" t="n">
+        <v>44387.75346064815</v>
       </c>
       <c r="I508" t="n">
         <v>1</v>
@@ -37431,10 +36433,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H509" t="inlineStr">
-        <is>
-          <t>2021-07-10 18:04:50</t>
-        </is>
+      <c r="H509" s="1" t="n">
+        <v>44387.75335648148</v>
       </c>
       <c r="I509" t="n">
         <v>0</v>
@@ -37510,10 +36510,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H510" t="inlineStr">
-        <is>
-          <t>2021-07-10 18:04:46</t>
-        </is>
+      <c r="H510" s="1" t="n">
+        <v>44387.75331018519</v>
       </c>
       <c r="I510" t="n">
         <v>0</v>
@@ -37590,10 +36588,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H511" t="inlineStr">
-        <is>
-          <t>2021-07-10 18:04:45</t>
-        </is>
+      <c r="H511" s="1" t="n">
+        <v>44387.75329861111</v>
       </c>
       <c r="I511" t="n">
         <v>0</v>
@@ -37670,10 +36666,8 @@
           <t>4881073932</t>
         </is>
       </c>
-      <c r="H512" t="inlineStr">
-        <is>
-          <t>2021-07-10 18:04:39</t>
-        </is>
+      <c r="H512" s="1" t="n">
+        <v>44387.75322916666</v>
       </c>
       <c r="I512" t="n">
         <v>0</v>
@@ -37745,10 +36739,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H513" t="inlineStr">
-        <is>
-          <t>2021-07-10 18:04:36</t>
-        </is>
+      <c r="H513" s="1" t="n">
+        <v>44387.75319444444</v>
       </c>
       <c r="I513" t="n">
         <v>0</v>
@@ -37816,10 +36808,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H514" t="inlineStr">
-        <is>
-          <t>2021-07-10 18:04:26</t>
-        </is>
+      <c r="H514" s="1" t="n">
+        <v>44387.7530787037</v>
       </c>
       <c r="I514" t="n">
         <v>0</v>
@@ -37899,10 +36889,8 @@
           <t>4881075844</t>
         </is>
       </c>
-      <c r="H515" t="inlineStr">
-        <is>
-          <t>2021-07-10 18:04:18</t>
-        </is>
+      <c r="H515" s="1" t="n">
+        <v>44387.75298611111</v>
       </c>
       <c r="I515" t="n">
         <v>10</v>
@@ -37970,10 +36958,8 @@
           <t>4881058357</t>
         </is>
       </c>
-      <c r="H516" t="inlineStr">
-        <is>
-          <t>2021-07-10 18:04:18</t>
-        </is>
+      <c r="H516" s="1" t="n">
+        <v>44387.75298611111</v>
       </c>
       <c r="I516" t="n">
         <v>0</v>
@@ -38045,10 +37031,8 @@
           <t>4881064450</t>
         </is>
       </c>
-      <c r="H517" t="inlineStr">
-        <is>
-          <t>2021-07-10 18:04:16</t>
-        </is>
+      <c r="H517" s="1" t="n">
+        <v>44387.75296296296</v>
       </c>
       <c r="I517" t="n">
         <v>1</v>
@@ -38112,10 +37096,8 @@
           <t>4881072860</t>
         </is>
       </c>
-      <c r="H518" t="inlineStr">
-        <is>
-          <t>2021-07-10 18:04:10</t>
-        </is>
+      <c r="H518" s="1" t="n">
+        <v>44387.75289351852</v>
       </c>
       <c r="I518" t="n">
         <v>0</v>
@@ -38183,10 +37165,8 @@
           <t>4881072756</t>
         </is>
       </c>
-      <c r="H519" t="inlineStr">
-        <is>
-          <t>2021-07-10 18:04:06</t>
-        </is>
+      <c r="H519" s="1" t="n">
+        <v>44387.75284722223</v>
       </c>
       <c r="I519" t="n">
         <v>2</v>
@@ -38250,10 +37230,8 @@
           <t>4881069197</t>
         </is>
       </c>
-      <c r="H520" t="inlineStr">
-        <is>
-          <t>2021-07-10 18:03:58</t>
-        </is>
+      <c r="H520" s="1" t="n">
+        <v>44387.75275462963</v>
       </c>
       <c r="I520" t="n">
         <v>0</v>
@@ -38329,10 +37307,8 @@
           <t>4881064450</t>
         </is>
       </c>
-      <c r="H521" t="inlineStr">
-        <is>
-          <t>2021-07-10 18:03:44</t>
-        </is>
+      <c r="H521" s="1" t="n">
+        <v>44387.75259259259</v>
       </c>
       <c r="I521" t="n">
         <v>2</v>
@@ -38392,10 +37368,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H522" t="inlineStr">
-        <is>
-          <t>2021-07-10 18:03:40</t>
-        </is>
+      <c r="H522" s="1" t="n">
+        <v>44387.75254629629</v>
       </c>
       <c r="I522" t="n">
         <v>8</v>
@@ -38467,10 +37441,8 @@
           <t>4881071750</t>
         </is>
       </c>
-      <c r="H523" t="inlineStr">
-        <is>
-          <t>2021-07-10 18:03:39</t>
-        </is>
+      <c r="H523" s="1" t="n">
+        <v>44387.75253472223</v>
       </c>
       <c r="I523" t="n">
         <v>1</v>
@@ -38547,10 +37519,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H524" t="inlineStr">
-        <is>
-          <t>2021-07-10 18:03:26</t>
-        </is>
+      <c r="H524" s="1" t="n">
+        <v>44387.75238425926</v>
       </c>
       <c r="I524" t="n">
         <v>1</v>
@@ -38618,10 +37588,8 @@
           <t>4881063580</t>
         </is>
       </c>
-      <c r="H525" t="inlineStr">
-        <is>
-          <t>2021-07-10 18:03:23</t>
-        </is>
+      <c r="H525" s="1" t="n">
+        <v>44387.75234953704</v>
       </c>
       <c r="I525" t="n">
         <v>46</v>
@@ -38693,10 +37661,8 @@
           <t>4881063310</t>
         </is>
       </c>
-      <c r="H526" t="inlineStr">
-        <is>
-          <t>2021-07-10 18:03:16</t>
-        </is>
+      <c r="H526" s="1" t="n">
+        <v>44387.75226851852</v>
       </c>
       <c r="I526" t="n">
         <v>1</v>
@@ -38764,10 +37730,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H527" t="inlineStr">
-        <is>
-          <t>2021-07-10 18:03:15</t>
-        </is>
+      <c r="H527" s="1" t="n">
+        <v>44387.75225694444</v>
       </c>
       <c r="I527" t="n">
         <v>0</v>
@@ -38835,10 +37799,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H528" t="inlineStr">
-        <is>
-          <t>2021-07-10 18:03:10</t>
-        </is>
+      <c r="H528" s="1" t="n">
+        <v>44387.75219907407</v>
       </c>
       <c r="I528" t="n">
         <v>0</v>
@@ -38902,10 +37864,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H529" t="inlineStr">
-        <is>
-          <t>2021-07-10 18:03:08</t>
-        </is>
+      <c r="H529" s="1" t="n">
+        <v>44387.75217592593</v>
       </c>
       <c r="I529" t="n">
         <v>0</v>
@@ -38973,10 +37933,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H530" t="inlineStr">
-        <is>
-          <t>2021-07-10 18:03:08</t>
-        </is>
+      <c r="H530" s="1" t="n">
+        <v>44387.75217592593</v>
       </c>
       <c r="I530" t="n">
         <v>1</v>
@@ -39040,10 +37998,8 @@
           <t>4881058357</t>
         </is>
       </c>
-      <c r="H531" t="inlineStr">
-        <is>
-          <t>2021-07-10 18:03:07</t>
-        </is>
+      <c r="H531" s="1" t="n">
+        <v>44387.75216435185</v>
       </c>
       <c r="I531" t="n">
         <v>2</v>
@@ -39107,10 +38063,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H532" t="inlineStr">
-        <is>
-          <t>2021-07-10 18:03:05</t>
-        </is>
+      <c r="H532" s="1" t="n">
+        <v>44387.7521412037</v>
       </c>
       <c r="I532" t="n">
         <v>48</v>
@@ -39186,10 +38140,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H533" t="inlineStr">
-        <is>
-          <t>2021-07-10 18:03:00</t>
-        </is>
+      <c r="H533" s="1" t="n">
+        <v>44387.75208333333</v>
       </c>
       <c r="I533" t="n">
         <v>0</v>
@@ -39261,10 +38213,8 @@
           <t>4881070330</t>
         </is>
       </c>
-      <c r="H534" t="inlineStr">
-        <is>
-          <t>2021-07-10 18:03:00</t>
-        </is>
+      <c r="H534" s="1" t="n">
+        <v>44387.75208333333</v>
       </c>
       <c r="I534" t="n">
         <v>1</v>
@@ -39332,10 +38282,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H535" t="inlineStr">
-        <is>
-          <t>2021-07-10 18:02:51</t>
-        </is>
+      <c r="H535" s="1" t="n">
+        <v>44387.75197916666</v>
       </c>
       <c r="I535" t="n">
         <v>5</v>
@@ -39399,10 +38347,8 @@
           <t>4881062175</t>
         </is>
       </c>
-      <c r="H536" t="inlineStr">
-        <is>
-          <t>2021-07-10 18:02:49</t>
-        </is>
+      <c r="H536" s="1" t="n">
+        <v>44387.75195601852</v>
       </c>
       <c r="I536" t="n">
         <v>0</v>
@@ -39466,10 +38412,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H537" t="inlineStr">
-        <is>
-          <t>2021-07-10 18:02:47</t>
-        </is>
+      <c r="H537" s="1" t="n">
+        <v>44387.75193287037</v>
       </c>
       <c r="I537" t="n">
         <v>154</v>
@@ -39537,10 +38481,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H538" t="inlineStr">
-        <is>
-          <t>2021-07-10 18:02:44</t>
-        </is>
+      <c r="H538" s="1" t="n">
+        <v>44387.75189814815</v>
       </c>
       <c r="I538" t="n">
         <v>57</v>
@@ -39608,10 +38550,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H539" t="inlineStr">
-        <is>
-          <t>2021-07-10 18:02:38</t>
-        </is>
+      <c r="H539" s="1" t="n">
+        <v>44387.7518287037</v>
       </c>
       <c r="I539" t="n">
         <v>70</v>
@@ -39675,10 +38615,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H540" t="inlineStr">
-        <is>
-          <t>2021-07-10 18:02:34</t>
-        </is>
+      <c r="H540" s="1" t="n">
+        <v>44387.75178240741</v>
       </c>
       <c r="I540" t="n">
         <v>0</v>
@@ -39746,10 +38684,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H541" t="inlineStr">
-        <is>
-          <t>2021-07-10 18:02:32</t>
-        </is>
+      <c r="H541" s="1" t="n">
+        <v>44387.75175925926</v>
       </c>
       <c r="I541" t="n">
         <v>0</v>
@@ -39825,10 +38761,8 @@
           <t>4881059223</t>
         </is>
       </c>
-      <c r="H542" t="inlineStr">
-        <is>
-          <t>2021-07-10 18:02:31</t>
-        </is>
+      <c r="H542" s="1" t="n">
+        <v>44387.75174768519</v>
       </c>
       <c r="I542" t="n">
         <v>1</v>
@@ -39896,10 +38830,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H543" t="inlineStr">
-        <is>
-          <t>2021-07-10 18:02:13</t>
-        </is>
+      <c r="H543" s="1" t="n">
+        <v>44387.75153935186</v>
       </c>
       <c r="I543" t="n">
         <v>117</v>
@@ -39967,10 +38899,8 @@
           <t>4881058357</t>
         </is>
       </c>
-      <c r="H544" t="inlineStr">
-        <is>
-          <t>2021-07-10 18:02:08</t>
-        </is>
+      <c r="H544" s="1" t="n">
+        <v>44387.75148148148</v>
       </c>
       <c r="I544" t="n">
         <v>11</v>
@@ -40045,10 +38975,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H545" t="inlineStr">
-        <is>
-          <t>2021-07-10 18:01:54</t>
-        </is>
+      <c r="H545" s="1" t="n">
+        <v>44387.75131944445</v>
       </c>
       <c r="I545" t="n">
         <v>130</v>
@@ -40116,10 +39044,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H546" t="inlineStr">
-        <is>
-          <t>2021-07-10 18:01:45</t>
-        </is>
+      <c r="H546" s="1" t="n">
+        <v>44387.75121527778</v>
       </c>
       <c r="I546" t="n">
         <v>0</v>
@@ -40179,10 +39105,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H547" t="inlineStr">
-        <is>
-          <t>2021-07-10 18:01:29</t>
-        </is>
+      <c r="H547" s="1" t="n">
+        <v>44387.75103009259</v>
       </c>
       <c r="I547" t="n">
         <v>24</v>
@@ -40246,10 +39170,8 @@
           <t>4881056660</t>
         </is>
       </c>
-      <c r="H548" t="inlineStr">
-        <is>
-          <t>2021-07-10 18:01:25</t>
-        </is>
+      <c r="H548" s="1" t="n">
+        <v>44387.75098379629</v>
       </c>
       <c r="I548" t="n">
         <v>0</v>
@@ -40325,10 +39247,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H549" t="inlineStr">
-        <is>
-          <t>2021-07-10 18:01:23</t>
-        </is>
+      <c r="H549" s="1" t="n">
+        <v>44387.75096064815</v>
       </c>
       <c r="I549" t="n">
         <v>3</v>
@@ -40405,10 +39325,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H550" t="inlineStr">
-        <is>
-          <t>2021-07-10 18:01:18</t>
-        </is>
+      <c r="H550" s="1" t="n">
+        <v>44387.75090277778</v>
       </c>
       <c r="I550" t="n">
         <v>134</v>
@@ -40472,10 +39390,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H551" t="inlineStr">
-        <is>
-          <t>2021-07-10 18:01:18</t>
-        </is>
+      <c r="H551" s="1" t="n">
+        <v>44387.75090277778</v>
       </c>
       <c r="I551" t="n">
         <v>547</v>
@@ -40551,10 +39467,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H552" t="inlineStr">
-        <is>
-          <t>2021-07-10 18:01:15</t>
-        </is>
+      <c r="H552" s="1" t="n">
+        <v>44387.75086805555</v>
       </c>
       <c r="I552" t="n">
         <v>293</v>
@@ -40622,10 +39536,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H553" t="inlineStr">
-        <is>
-          <t>2021-07-10 18:01:14</t>
-        </is>
+      <c r="H553" s="1" t="n">
+        <v>44387.75085648148</v>
       </c>
       <c r="I553" t="n">
         <v>0</v>
@@ -40689,10 +39601,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H554" t="inlineStr">
-        <is>
-          <t>2021-07-10 18:01:01</t>
-        </is>
+      <c r="H554" s="1" t="n">
+        <v>44387.75070601852</v>
       </c>
       <c r="I554" t="n">
         <v>0</v>
@@ -40756,10 +39666,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H555" t="inlineStr">
-        <is>
-          <t>2021-07-10 18:00:38</t>
-        </is>
+      <c r="H555" s="1" t="n">
+        <v>44387.75043981482</v>
       </c>
       <c r="I555" t="n">
         <v>1</v>
@@ -40835,10 +39743,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H556" t="inlineStr">
-        <is>
-          <t>2021-07-10 18:00:38</t>
-        </is>
+      <c r="H556" s="1" t="n">
+        <v>44387.75043981482</v>
       </c>
       <c r="I556" t="n">
         <v>0</v>
@@ -40898,10 +39804,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H557" t="inlineStr">
-        <is>
-          <t>2021-07-10 18:00:32</t>
-        </is>
+      <c r="H557" s="1" t="n">
+        <v>44387.75037037037</v>
       </c>
       <c r="I557" t="n">
         <v>0</v>
